--- a/chimie/PIRATA FR 25_chimie.xlsx
+++ b/chimie/PIRATA FR 25_chimie.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr date1904="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-720" yWindow="-75" windowWidth="8865" windowHeight="5700"/>
+    <workbookView xWindow="-720" yWindow="-75" windowWidth="8865" windowHeight="5700" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="041_01" sheetId="4" r:id="rId1"/>
     <sheet name="042_01" sheetId="8" r:id="rId2"/>
     <sheet name="043_01" sheetId="9" r:id="rId3"/>
     <sheet name="044_01" sheetId="10" r:id="rId4"/>
-    <sheet name="Volumes flacons" sheetId="3" r:id="rId5"/>
-    <sheet name="Titre d'iodate" sheetId="2" r:id="rId6"/>
-    <sheet name="Correction de volume" sheetId="1" r:id="rId7"/>
+    <sheet name="044_02" sheetId="11" r:id="rId5"/>
+    <sheet name="Volumes flacons" sheetId="3" r:id="rId6"/>
+    <sheet name="Titre d'iodate" sheetId="2" r:id="rId7"/>
+    <sheet name="Correction de volume" sheetId="1" r:id="rId8"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1253" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1429" uniqueCount="169">
   <si>
     <t>Dates</t>
   </si>
@@ -1872,7 +1873,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -2388,25 +2389,91 @@
     <xf numFmtId="14" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="14" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2462,63 +2529,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="41" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="42" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="14" fillId="4" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="14" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2640,7 +2650,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12397671693252371"/>
+          <c:x val="0.12397671693252373"/>
           <c:y val="7.4385552552199627E-2"/>
           <c:w val="0.77517854548624221"/>
           <c:h val="0.89521395646439761"/>
@@ -2744,11 +2754,11 @@
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
         </c:dLbls>
-        <c:axId val="173419136"/>
-        <c:axId val="173429888"/>
+        <c:axId val="145563648"/>
+        <c:axId val="145565952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173419136"/>
+        <c:axId val="145563648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2780,12 +2790,12 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173429888"/>
+        <c:crossAx val="145565952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173429888"/>
+        <c:axId val="145565952"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2818,7 +2828,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173419136"/>
+        <c:crossAx val="145563648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2828,7 +2838,213 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13261013377045341"/>
+          <c:y val="7.7702302137606052E-2"/>
+          <c:w val="0.78042794836519069"/>
+          <c:h val="0.89189720687899188"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'044_02'!$G$34:$G$57</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>34.623699999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>34.619700000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34.583100000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>35.673400000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.811700000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.121699999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>36.223700000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.328200000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.325299999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>34.325600000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34.326099999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'044_02'!$H$34:$H$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+        </c:dLbls>
+        <c:axId val="178799744"/>
+        <c:axId val="178801664"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="178799744"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Salinité</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.81219330855018712"/>
+              <c:y val="7.3508050299682687E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="0"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178801664"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="178801664"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Profondeur</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.13287943096332291"/>
+              <c:y val="0.78978597824525654"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178799744"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2847,9 +3063,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13261013377045341"/>
-          <c:y val="7.7702302137605983E-2"/>
+          <c:y val="7.7702302137605997E-2"/>
           <c:w val="0.78042794836519069"/>
-          <c:h val="0.89189720687899132"/>
+          <c:h val="0.89189720687899143"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2950,11 +3166,11 @@
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
         </c:dLbls>
-        <c:axId val="173445888"/>
-        <c:axId val="173447808"/>
+        <c:axId val="145594240"/>
+        <c:axId val="145600512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="173445888"/>
+        <c:axId val="145594240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2979,19 +3195,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.81219330855018645"/>
+              <c:x val="0.81219330855018657"/>
               <c:y val="7.3508050299682687E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173447808"/>
+        <c:crossAx val="145600512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="173447808"/>
+        <c:axId val="145600512"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3024,7 +3240,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="173445888"/>
+        <c:crossAx val="145594240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3034,7 +3250,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3052,7 +3268,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12397671693252371"/>
+          <c:x val="0.12397671693252373"/>
           <c:y val="7.4385552552199627E-2"/>
           <c:w val="0.77517854548624221"/>
           <c:h val="0.89521395646439761"/>
@@ -3156,11 +3372,11 @@
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
         </c:dLbls>
-        <c:axId val="180598656"/>
-        <c:axId val="180613120"/>
+        <c:axId val="145611776"/>
+        <c:axId val="154231936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180598656"/>
+        <c:axId val="145611776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3192,12 +3408,12 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180613120"/>
+        <c:crossAx val="154231936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180613120"/>
+        <c:axId val="154231936"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3230,7 +3446,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180598656"/>
+        <c:crossAx val="145611776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3240,7 +3456,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3259,9 +3475,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13261013377045341"/>
-          <c:y val="7.7702302137605983E-2"/>
+          <c:y val="7.7702302137605997E-2"/>
           <c:w val="0.78042794836519069"/>
-          <c:h val="0.89189720687899132"/>
+          <c:h val="0.89189720687899143"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3362,11 +3578,11 @@
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
         </c:dLbls>
-        <c:axId val="180624768"/>
-        <c:axId val="180655616"/>
+        <c:axId val="154256128"/>
+        <c:axId val="154258048"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180624768"/>
+        <c:axId val="154256128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3391,19 +3607,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.81219330855018645"/>
+              <c:x val="0.81219330855018657"/>
               <c:y val="7.3508050299682687E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180655616"/>
+        <c:crossAx val="154258048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180655616"/>
+        <c:axId val="154258048"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3436,7 +3652,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180624768"/>
+        <c:crossAx val="154256128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3446,7 +3662,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3464,7 +3680,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12397671693252371"/>
+          <c:x val="0.12397671693252373"/>
           <c:y val="7.4385552552199627E-2"/>
           <c:w val="0.77517854548624221"/>
           <c:h val="0.89521395646439761"/>
@@ -3568,11 +3784,11 @@
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
         </c:dLbls>
-        <c:axId val="180691712"/>
-        <c:axId val="180693632"/>
+        <c:axId val="154662784"/>
+        <c:axId val="154542080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180691712"/>
+        <c:axId val="154662784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3604,12 +3820,12 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180693632"/>
+        <c:crossAx val="154542080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180693632"/>
+        <c:axId val="154542080"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3642,7 +3858,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180691712"/>
+        <c:crossAx val="154662784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3652,7 +3868,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3671,9 +3887,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13261013377045341"/>
-          <c:y val="7.7702302137605983E-2"/>
+          <c:y val="7.7702302137605997E-2"/>
           <c:w val="0.78042794836519069"/>
-          <c:h val="0.89189720687899132"/>
+          <c:h val="0.89189720687899143"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -3774,11 +3990,11 @@
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
         </c:dLbls>
-        <c:axId val="180726016"/>
-        <c:axId val="180736384"/>
+        <c:axId val="154553728"/>
+        <c:axId val="154572288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180726016"/>
+        <c:axId val="154553728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3803,19 +4019,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.81219330855018645"/>
+              <c:x val="0.81219330855018657"/>
               <c:y val="7.3508050299682687E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180736384"/>
+        <c:crossAx val="154572288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180736384"/>
+        <c:axId val="154572288"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3848,7 +4064,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180726016"/>
+        <c:crossAx val="154553728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3858,7 +4074,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3876,7 +4092,7 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12397671693252374"/>
+          <c:x val="0.12397671693252375"/>
           <c:y val="7.4385552552199627E-2"/>
           <c:w val="0.77517854548624221"/>
           <c:h val="0.89521395646439761"/>
@@ -3980,11 +4196,11 @@
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
         </c:dLbls>
-        <c:axId val="180747264"/>
-        <c:axId val="180933760"/>
+        <c:axId val="154677632"/>
+        <c:axId val="154679552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180747264"/>
+        <c:axId val="154677632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4016,12 +4232,12 @@
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180933760"/>
+        <c:crossAx val="154679552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180933760"/>
+        <c:axId val="154679552"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4054,7 +4270,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180747264"/>
+        <c:crossAx val="154677632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4064,7 +4280,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4083,9 +4299,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.13261013377045341"/>
-          <c:y val="7.7702302137606011E-2"/>
+          <c:y val="7.7702302137606025E-2"/>
           <c:w val="0.78042794836519069"/>
-          <c:h val="0.89189720687899154"/>
+          <c:h val="0.89189720687899166"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4186,11 +4402,11 @@
           <c:showVal val="1"/>
           <c:showCatName val="1"/>
         </c:dLbls>
-        <c:axId val="180835072"/>
-        <c:axId val="180836992"/>
+        <c:axId val="154699648"/>
+        <c:axId val="154718208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="180835072"/>
+        <c:axId val="154699648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4215,19 +4431,19 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.81219330855018679"/>
+              <c:x val="0.8121933085501869"/>
               <c:y val="7.3508050299682687E-2"/>
             </c:manualLayout>
           </c:layout>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="0"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180836992"/>
+        <c:crossAx val="154718208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="180836992"/>
+        <c:axId val="154718208"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -4260,7 +4476,7 @@
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="180835072"/>
+        <c:crossAx val="154699648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4270,7 +4486,213 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="1"/>
+  <c:lang val="fr-FR"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12397671693252378"/>
+          <c:y val="7.4385552552199627E-2"/>
+          <c:w val="0.77517854548624221"/>
+          <c:h val="0.89521395646439761"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'044_02'!$S$34:$S$44</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>160.6024830741047</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>159.77769771531581</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>135.2432986458397</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>127.54792206760851</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>154.31946677990564</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>168.56441554430165</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>203.53342723090995</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>200.98285404651557</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>200.33548752742556</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.25278173439392</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>200.32636679142817</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'044_02'!$H$34:$H$57</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+          <c:showCatName val="1"/>
+        </c:dLbls>
+        <c:axId val="178769280"/>
+        <c:axId val="178787840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="178769280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="t"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Oxygène dissous (µmol/kg)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.41458813958218332"/>
+              <c:y val="7.3528943210456901E-2"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178787840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="178787840"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-FR"/>
+                  <a:t>Profondeur</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.12772176540663047"/>
+              <c:y val="0.78978597824525654"/>
+            </c:manualLayout>
+          </c:layout>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="178769280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000111" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000111" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -4482,6 +4904,75 @@
 </file>
 
 <file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>82</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -4837,7 +5328,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AC64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="T34" sqref="T34:AC44"/>
     </sheetView>
   </sheetViews>
@@ -4868,28 +5359,28 @@
       <c r="J1" s="185"/>
     </row>
     <row r="2" spans="3:28" ht="21">
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="251" t="s">
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="220" t="s">
         <v>123</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="251"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
       <c r="U2" s="26"/>
     </row>
     <row r="3" spans="3:28">
@@ -4914,27 +5405,27 @@
       <c r="U3" s="29"/>
     </row>
     <row r="4" spans="3:28" ht="21.75" thickBot="1">
-      <c r="C4" s="252" t="s">
+      <c r="C4" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="253"/>
-      <c r="N4" s="253"/>
-      <c r="O4" s="253"/>
-      <c r="P4" s="253"/>
-      <c r="Q4" s="253"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="253"/>
-      <c r="T4" s="253"/>
-      <c r="U4" s="254"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223"/>
     </row>
     <row r="5" spans="3:28" s="52" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="C5" s="56"/>
@@ -4955,37 +5446,37 @@
       <c r="R5" s="56"/>
     </row>
     <row r="6" spans="3:28" s="52" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="258">
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="227">
         <v>41</v>
       </c>
-      <c r="G6" s="258"/>
-      <c r="H6" s="221" t="s">
+      <c r="G6" s="227"/>
+      <c r="H6" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
       <c r="K6" s="121"/>
       <c r="L6" s="121"/>
       <c r="M6" s="121"/>
       <c r="N6" s="120"/>
       <c r="O6" s="121"/>
-      <c r="P6" s="257">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="257"/>
+      <c r="P6" s="226">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="226"/>
       <c r="R6" s="147" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="255">
+      <c r="S6" s="224">
         <v>39553</v>
       </c>
-      <c r="T6" s="255"/>
-      <c r="U6" s="256"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="225"/>
     </row>
     <row r="7" spans="3:28" s="52" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="C7" s="88"/>
@@ -5009,10 +5500,10 @@
       <c r="D8" s="87"/>
       <c r="E8" s="185"/>
       <c r="F8" s="185"/>
-      <c r="G8" s="238" t="s">
+      <c r="G8" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="239"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="122" t="s">
         <v>90</v>
       </c>
@@ -5027,20 +5518,20 @@
       <c r="P8" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="226" t="s">
+      <c r="Q8" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="227"/>
+      <c r="R8" s="249"/>
     </row>
     <row r="9" spans="3:28" s="52" customFormat="1" ht="14.25" customHeight="1">
       <c r="C9" s="108"/>
       <c r="D9" s="87"/>
       <c r="E9" s="185"/>
       <c r="F9" s="185"/>
-      <c r="G9" s="236" t="s">
+      <c r="G9" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="237"/>
+      <c r="H9" s="259"/>
       <c r="I9" s="92">
         <v>2</v>
       </c>
@@ -5067,11 +5558,11 @@
       <c r="P9" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="224">
+      <c r="Q9" s="246">
         <f>IF(ISBLANK(I9),"",IF(ISBLANK(J9),"",IF(J9&gt;60,"ERREUR !!",O11*(I9+(J9/60)))))</f>
         <v>-2</v>
       </c>
-      <c r="R9" s="225"/>
+      <c r="R9" s="247"/>
       <c r="T9" s="185"/>
     </row>
     <row r="10" spans="3:28" s="52" customFormat="1" ht="15" customHeight="1">
@@ -5079,10 +5570,10 @@
       <c r="D10" s="87"/>
       <c r="E10" s="185"/>
       <c r="F10" s="185"/>
-      <c r="G10" s="236" t="s">
+      <c r="G10" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="237"/>
+      <c r="H10" s="259"/>
       <c r="I10" s="92">
         <v>10</v>
       </c>
@@ -5109,11 +5600,11 @@
       <c r="P10" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="Q10" s="224">
+      <c r="Q10" s="246">
         <f>IF(ISBLANK(I10),"",IF(ISBLANK(J10),"",IF(J10&gt;60,"ERREUR !!",O12*(I10+(J10/60)))))</f>
         <v>-10</v>
       </c>
-      <c r="R10" s="225"/>
+      <c r="R10" s="247"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
     </row>
@@ -5121,10 +5612,10 @@
       <c r="D11" s="185"/>
       <c r="E11" s="185"/>
       <c r="F11" s="185"/>
-      <c r="G11" s="232" t="s">
+      <c r="G11" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="233"/>
+      <c r="H11" s="255"/>
       <c r="I11" s="188" t="s">
         <v>69</v>
       </c>
@@ -5142,12 +5633,12 @@
         <f>IF(P9=M10,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="P11" s="228" t="str">
+      <c r="P11" s="250" t="str">
         <f>TEXT(J11,"aaaa-mm-jj")&amp;"T"&amp;TEXT(J12,"hh:mm:ss")&amp;"Z"</f>
         <v>2014-12-23T12:23:00Z</v>
       </c>
-      <c r="Q11" s="228"/>
-      <c r="R11" s="229"/>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="251"/>
       <c r="T11" s="84"/>
       <c r="U11" s="84"/>
       <c r="V11" s="86"/>
@@ -5158,8 +5649,8 @@
       <c r="D12" s="185"/>
       <c r="E12" s="185"/>
       <c r="F12" s="185"/>
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="257"/>
       <c r="I12" s="189" t="s">
         <v>115</v>
       </c>
@@ -5177,9 +5668,9 @@
         <f>IF(P10=N10,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="230"/>
-      <c r="R12" s="231"/>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="252"/>
+      <c r="R12" s="253"/>
       <c r="T12" s="84"/>
       <c r="U12" s="84"/>
       <c r="V12" s="86"/>
@@ -5618,12 +6109,12 @@
     </row>
     <row r="29" spans="3:29" s="52" customFormat="1" ht="15.75">
       <c r="D29" s="185"/>
-      <c r="E29" s="219" t="s">
+      <c r="E29" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
       <c r="I29" s="143" t="s">
         <v>107</v>
       </c>
@@ -5654,100 +6145,100 @@
       <c r="P30" s="145"/>
     </row>
     <row r="31" spans="3:29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C31" s="247" t="s">
+      <c r="C31" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="217" t="s">
+      <c r="D31" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="217" t="s">
+      <c r="E31" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="217" t="s">
+      <c r="F31" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="217" t="s">
+      <c r="G31" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="217" t="s">
+      <c r="H31" s="238" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="240" t="s">
+      <c r="I31" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="217" t="s">
+      <c r="J31" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="217" t="s">
+      <c r="K31" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="217" t="s">
+      <c r="L31" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="217" t="s">
+      <c r="M31" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="217" t="s">
+      <c r="N31" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="O31" s="217" t="s">
+      <c r="O31" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="249" t="s">
+      <c r="P31" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="Q31" s="249"/>
-      <c r="R31" s="249"/>
-      <c r="S31" s="249"/>
-      <c r="T31" s="222" t="s">
+      <c r="Q31" s="242"/>
+      <c r="R31" s="242"/>
+      <c r="S31" s="242"/>
+      <c r="T31" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222" t="s">
+      <c r="U31" s="231"/>
+      <c r="V31" s="231" t="s">
         <v>112</v>
       </c>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222" t="s">
+      <c r="W31" s="231"/>
+      <c r="X31" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222" t="s">
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222" t="s">
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="AC31" s="242"/>
+      <c r="AC31" s="233"/>
     </row>
     <row r="32" spans="3:29" s="52" customFormat="1" ht="15.75" customHeight="1">
-      <c r="C32" s="248"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="250"/>
-      <c r="Q32" s="250"/>
-      <c r="R32" s="250"/>
-      <c r="S32" s="250"/>
-      <c r="T32" s="223"/>
-      <c r="U32" s="223"/>
-      <c r="V32" s="223"/>
-      <c r="W32" s="223"/>
-      <c r="X32" s="223"/>
-      <c r="Y32" s="223"/>
-      <c r="Z32" s="223"/>
-      <c r="AA32" s="223"/>
-      <c r="AB32" s="223"/>
-      <c r="AC32" s="243"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="239"/>
+      <c r="M32" s="239"/>
+      <c r="N32" s="239"/>
+      <c r="O32" s="239"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="234"/>
     </row>
     <row r="33" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
       <c r="C33" s="179" t="s">
@@ -7761,25 +8252,25 @@
       <c r="J60" s="185"/>
     </row>
     <row r="61" spans="1:29" ht="21.75" thickBot="1">
-      <c r="C61" s="244" t="s">
+      <c r="C61" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="245"/>
-      <c r="E61" s="245"/>
-      <c r="F61" s="245"/>
-      <c r="G61" s="245"/>
-      <c r="H61" s="245"/>
-      <c r="I61" s="245"/>
-      <c r="J61" s="245"/>
-      <c r="K61" s="245"/>
-      <c r="L61" s="245"/>
-      <c r="M61" s="245"/>
-      <c r="N61" s="245"/>
-      <c r="O61" s="245"/>
-      <c r="P61" s="245"/>
-      <c r="Q61" s="245"/>
-      <c r="R61" s="245"/>
-      <c r="S61" s="246"/>
+      <c r="D61" s="236"/>
+      <c r="E61" s="236"/>
+      <c r="F61" s="236"/>
+      <c r="G61" s="236"/>
+      <c r="H61" s="236"/>
+      <c r="I61" s="236"/>
+      <c r="J61" s="236"/>
+      <c r="K61" s="236"/>
+      <c r="L61" s="236"/>
+      <c r="M61" s="236"/>
+      <c r="N61" s="236"/>
+      <c r="O61" s="236"/>
+      <c r="P61" s="236"/>
+      <c r="Q61" s="236"/>
+      <c r="R61" s="236"/>
+      <c r="S61" s="237"/>
     </row>
     <row r="64" spans="1:29">
       <c r="C64" s="52"/>
@@ -7795,13 +8286,20 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="37">
-    <mergeCell ref="F2:T2"/>
-    <mergeCell ref="C4:U4"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="V31:W32"/>
+    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="P11:R12"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I31:I32"/>
     <mergeCell ref="Z31:AA32"/>
     <mergeCell ref="AB31:AC32"/>
     <mergeCell ref="C61:S61"/>
@@ -7818,20 +8316,13 @@
     <mergeCell ref="F31:F32"/>
     <mergeCell ref="T31:U32"/>
     <mergeCell ref="P31:S32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="E29:H29"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="V31:W32"/>
-    <mergeCell ref="X31:Y32"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="P11:R12"/>
-    <mergeCell ref="G11:H12"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="F2:T2"/>
+    <mergeCell ref="C4:U4"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="C2:E2"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choix Cardinal" sqref="P9">
@@ -7873,28 +8364,28 @@
   <sheetData>
     <row r="1" spans="3:23" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:23" ht="21">
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="251" t="s">
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="220" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="251"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
       <c r="U2" s="26"/>
     </row>
     <row r="3" spans="3:23">
@@ -7919,27 +8410,27 @@
       <c r="U3" s="29"/>
     </row>
     <row r="4" spans="3:23" ht="21.75" thickBot="1">
-      <c r="C4" s="252" t="s">
+      <c r="C4" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="253"/>
-      <c r="N4" s="253"/>
-      <c r="O4" s="253"/>
-      <c r="P4" s="253"/>
-      <c r="Q4" s="253"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="253"/>
-      <c r="T4" s="253"/>
-      <c r="U4" s="254"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223"/>
     </row>
     <row r="5" spans="3:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="C5" s="56"/>
@@ -7958,37 +8449,37 @@
       <c r="R5" s="56"/>
     </row>
     <row r="6" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="258">
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="227">
         <v>42</v>
       </c>
-      <c r="G6" s="258"/>
-      <c r="H6" s="221" t="s">
+      <c r="G6" s="227"/>
+      <c r="H6" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
       <c r="K6" s="121"/>
       <c r="L6" s="121"/>
       <c r="M6" s="121"/>
       <c r="N6" s="120"/>
       <c r="O6" s="121"/>
-      <c r="P6" s="257">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="257"/>
+      <c r="P6" s="226">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="226"/>
       <c r="R6" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="255">
+      <c r="S6" s="224">
         <v>39553</v>
       </c>
-      <c r="T6" s="255"/>
-      <c r="U6" s="256"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="225"/>
     </row>
     <row r="7" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
       <c r="C7" s="88"/>
@@ -8010,10 +8501,10 @@
     <row r="8" spans="3:23" ht="15" customHeight="1">
       <c r="C8" s="108"/>
       <c r="D8" s="87"/>
-      <c r="G8" s="238" t="s">
+      <c r="G8" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="239"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="184" t="s">
         <v>90</v>
       </c>
@@ -8028,18 +8519,18 @@
       <c r="P8" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="226" t="s">
+      <c r="Q8" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="227"/>
+      <c r="R8" s="249"/>
     </row>
     <row r="9" spans="3:23" ht="14.25" customHeight="1">
       <c r="C9" s="108"/>
       <c r="D9" s="87"/>
-      <c r="G9" s="236" t="s">
+      <c r="G9" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="237"/>
+      <c r="H9" s="259"/>
       <c r="I9" s="92">
         <v>0</v>
       </c>
@@ -8066,19 +8557,19 @@
       <c r="P9" s="93" t="s">
         <v>93</v>
       </c>
-      <c r="Q9" s="224">
+      <c r="Q9" s="246">
         <f>IF(ISBLANK(I9),"",IF(ISBLANK(J9),"",IF(J9&gt;60,"ERREUR !!",O11*(I9+(J9/60)))))</f>
         <v>0</v>
       </c>
-      <c r="R9" s="225"/>
+      <c r="R9" s="247"/>
     </row>
     <row r="10" spans="3:23" ht="15" customHeight="1">
       <c r="C10" s="108"/>
       <c r="D10" s="87"/>
-      <c r="G10" s="236" t="s">
+      <c r="G10" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="237"/>
+      <c r="H10" s="259"/>
       <c r="I10" s="92">
         <v>10</v>
       </c>
@@ -8105,19 +8596,19 @@
       <c r="P10" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="Q10" s="224">
+      <c r="Q10" s="246">
         <f>IF(ISBLANK(I10),"",IF(ISBLANK(J10),"",IF(J10&gt;60,"ERREUR !!",O12*(I10+(J10/60)))))</f>
         <v>-10</v>
       </c>
-      <c r="R10" s="225"/>
+      <c r="R10" s="247"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
     </row>
     <row r="11" spans="3:23">
-      <c r="G11" s="232" t="s">
+      <c r="G11" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="233"/>
+      <c r="H11" s="255"/>
       <c r="I11" s="188" t="s">
         <v>69</v>
       </c>
@@ -8135,20 +8626,20 @@
         <f>IF(P9=M10,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="P11" s="228" t="str">
+      <c r="P11" s="250" t="str">
         <f>TEXT(J11,"aaaa-mm-jj")&amp;"T"&amp;TEXT(J12,"hh:mm:ss")&amp;"z"</f>
         <v>2014-12-23T12:23:00z</v>
       </c>
-      <c r="Q11" s="228"/>
-      <c r="R11" s="229"/>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="251"/>
       <c r="T11" s="84"/>
       <c r="U11" s="84"/>
       <c r="V11" s="86"/>
       <c r="W11" s="86"/>
     </row>
     <row r="12" spans="3:23" ht="15.75" thickBot="1">
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="257"/>
       <c r="I12" s="189" t="s">
         <v>115</v>
       </c>
@@ -8166,9 +8657,9 @@
         <f>IF(P10=N10,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="230"/>
-      <c r="R12" s="231"/>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="252"/>
+      <c r="R12" s="253"/>
       <c r="T12" s="84"/>
       <c r="U12" s="84"/>
       <c r="V12" s="86"/>
@@ -8560,12 +9051,12 @@
       <c r="R27" s="39"/>
     </row>
     <row r="29" spans="3:29" ht="15.75">
-      <c r="E29" s="219" t="s">
+      <c r="E29" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
       <c r="I29" s="143" t="s">
         <v>107</v>
       </c>
@@ -8594,100 +9085,100 @@
       <c r="P30" s="145"/>
     </row>
     <row r="31" spans="3:29" ht="15.75" customHeight="1">
-      <c r="C31" s="247" t="s">
+      <c r="C31" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="217" t="s">
+      <c r="D31" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="217" t="s">
+      <c r="E31" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="217" t="s">
+      <c r="F31" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="217" t="s">
+      <c r="G31" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="217" t="s">
+      <c r="H31" s="238" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="240" t="s">
+      <c r="I31" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="217" t="s">
+      <c r="J31" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="217" t="s">
+      <c r="K31" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="217" t="s">
+      <c r="L31" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="217" t="s">
+      <c r="M31" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="217" t="s">
+      <c r="N31" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="O31" s="217" t="s">
+      <c r="O31" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="249" t="s">
+      <c r="P31" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="Q31" s="249"/>
-      <c r="R31" s="249"/>
-      <c r="S31" s="249"/>
-      <c r="T31" s="222" t="s">
+      <c r="Q31" s="242"/>
+      <c r="R31" s="242"/>
+      <c r="S31" s="242"/>
+      <c r="T31" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222" t="s">
+      <c r="U31" s="231"/>
+      <c r="V31" s="231" t="s">
         <v>112</v>
       </c>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222" t="s">
+      <c r="W31" s="231"/>
+      <c r="X31" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222" t="s">
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222" t="s">
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="AC31" s="242"/>
+      <c r="AC31" s="233"/>
     </row>
     <row r="32" spans="3:29" ht="15.75" customHeight="1">
-      <c r="C32" s="248"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="250"/>
-      <c r="Q32" s="250"/>
-      <c r="R32" s="250"/>
-      <c r="S32" s="250"/>
-      <c r="T32" s="223"/>
-      <c r="U32" s="223"/>
-      <c r="V32" s="223"/>
-      <c r="W32" s="223"/>
-      <c r="X32" s="223"/>
-      <c r="Y32" s="223"/>
-      <c r="Z32" s="223"/>
-      <c r="AA32" s="223"/>
-      <c r="AB32" s="223"/>
-      <c r="AC32" s="243"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="239"/>
+      <c r="M32" s="239"/>
+      <c r="N32" s="239"/>
+      <c r="O32" s="239"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="234"/>
     </row>
     <row r="33" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
       <c r="C33" s="179" t="s">
@@ -10553,43 +11044,42 @@
     <row r="59" spans="1:29" ht="22.5" customHeight="1"/>
     <row r="60" spans="1:29" ht="3" customHeight="1" thickBot="1"/>
     <row r="61" spans="1:29" ht="21.75" thickBot="1">
-      <c r="C61" s="244" t="s">
+      <c r="C61" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="245"/>
-      <c r="E61" s="245"/>
-      <c r="F61" s="245"/>
-      <c r="G61" s="245"/>
-      <c r="H61" s="245"/>
-      <c r="I61" s="245"/>
-      <c r="J61" s="245"/>
-      <c r="K61" s="245"/>
-      <c r="L61" s="245"/>
-      <c r="M61" s="245"/>
-      <c r="N61" s="245"/>
-      <c r="O61" s="245"/>
-      <c r="P61" s="245"/>
-      <c r="Q61" s="245"/>
-      <c r="R61" s="245"/>
-      <c r="S61" s="246"/>
+      <c r="D61" s="236"/>
+      <c r="E61" s="236"/>
+      <c r="F61" s="236"/>
+      <c r="G61" s="236"/>
+      <c r="H61" s="236"/>
+      <c r="I61" s="236"/>
+      <c r="J61" s="236"/>
+      <c r="K61" s="236"/>
+      <c r="L61" s="236"/>
+      <c r="M61" s="236"/>
+      <c r="N61" s="236"/>
+      <c r="O61" s="236"/>
+      <c r="P61" s="236"/>
+      <c r="Q61" s="236"/>
+      <c r="R61" s="236"/>
+      <c r="S61" s="237"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="37">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:T2"/>
-    <mergeCell ref="C4:U4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C61:S61"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="T31:U32"/>
+    <mergeCell ref="V31:W32"/>
+    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="Z31:AA32"/>
+    <mergeCell ref="AB31:AC32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="P11:R12"/>
     <mergeCell ref="E29:H29"/>
@@ -10600,19 +11090,20 @@
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
-    <mergeCell ref="Z31:AA32"/>
-    <mergeCell ref="AB31:AC32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="C61:S61"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="T31:U32"/>
-    <mergeCell ref="V31:W32"/>
-    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:T2"/>
+    <mergeCell ref="C4:U4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:U6"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I29">
@@ -10654,28 +11145,28 @@
   <sheetData>
     <row r="1" spans="3:23" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:23" ht="21">
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="251" t="s">
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="220" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="251"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
       <c r="U2" s="26"/>
     </row>
     <row r="3" spans="3:23">
@@ -10700,27 +11191,27 @@
       <c r="U3" s="29"/>
     </row>
     <row r="4" spans="3:23" ht="21.75" thickBot="1">
-      <c r="C4" s="252" t="s">
+      <c r="C4" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="253"/>
-      <c r="N4" s="253"/>
-      <c r="O4" s="253"/>
-      <c r="P4" s="253"/>
-      <c r="Q4" s="253"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="253"/>
-      <c r="T4" s="253"/>
-      <c r="U4" s="254"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223"/>
     </row>
     <row r="5" spans="3:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="C5" s="56"/>
@@ -10739,37 +11230,37 @@
       <c r="R5" s="56"/>
     </row>
     <row r="6" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="258">
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="227">
         <v>43</v>
       </c>
-      <c r="G6" s="258"/>
-      <c r="H6" s="221" t="s">
+      <c r="G6" s="227"/>
+      <c r="H6" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
       <c r="K6" s="121"/>
       <c r="L6" s="121"/>
       <c r="M6" s="121"/>
       <c r="N6" s="120"/>
       <c r="O6" s="121"/>
-      <c r="P6" s="257">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="257"/>
+      <c r="P6" s="226">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="226"/>
       <c r="R6" s="157" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="255">
+      <c r="S6" s="224">
         <v>39553</v>
       </c>
-      <c r="T6" s="255"/>
-      <c r="U6" s="256"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="225"/>
     </row>
     <row r="7" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
       <c r="C7" s="88"/>
@@ -10791,10 +11282,10 @@
     <row r="8" spans="3:23" ht="15" customHeight="1">
       <c r="C8" s="108"/>
       <c r="D8" s="87"/>
-      <c r="G8" s="238" t="s">
+      <c r="G8" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="239"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="184" t="s">
         <v>90</v>
       </c>
@@ -10809,18 +11300,18 @@
       <c r="P8" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="226" t="s">
+      <c r="Q8" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="227"/>
+      <c r="R8" s="249"/>
     </row>
     <row r="9" spans="3:23" ht="14.25" customHeight="1">
       <c r="C9" s="108"/>
       <c r="D9" s="87"/>
-      <c r="G9" s="236" t="s">
+      <c r="G9" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="237"/>
+      <c r="H9" s="259"/>
       <c r="I9" s="92">
         <v>2</v>
       </c>
@@ -10847,19 +11338,19 @@
       <c r="P9" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="224">
+      <c r="Q9" s="246">
         <f>IF(ISBLANK(I9),"",IF(ISBLANK(J9),"",IF(J9&gt;60,"ERREUR !!",O11*(I9+(J9/60)))))</f>
         <v>2</v>
       </c>
-      <c r="R9" s="225"/>
+      <c r="R9" s="247"/>
     </row>
     <row r="10" spans="3:23" ht="15" customHeight="1">
       <c r="C10" s="108"/>
       <c r="D10" s="87"/>
-      <c r="G10" s="236" t="s">
+      <c r="G10" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="237"/>
+      <c r="H10" s="259"/>
       <c r="I10" s="92">
         <v>10</v>
       </c>
@@ -10886,19 +11377,19 @@
       <c r="P10" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="Q10" s="224">
+      <c r="Q10" s="246">
         <f>IF(ISBLANK(I10),"",IF(ISBLANK(J10),"",IF(J10&gt;60,"ERREUR !!",O12*(I10+(J10/60)))))</f>
         <v>-10</v>
       </c>
-      <c r="R10" s="225"/>
+      <c r="R10" s="247"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
     </row>
     <row r="11" spans="3:23">
-      <c r="G11" s="232" t="s">
+      <c r="G11" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="233"/>
+      <c r="H11" s="255"/>
       <c r="I11" s="188" t="s">
         <v>69</v>
       </c>
@@ -10916,20 +11407,20 @@
         <f>IF(P9=M10,-1,1)</f>
         <v>1</v>
       </c>
-      <c r="P11" s="228" t="str">
+      <c r="P11" s="250" t="str">
         <f>TEXT(J11,"aaaa-mm-jj")&amp;"T"&amp;TEXT(J12,"hh:mm:ss")&amp;"z"</f>
         <v>2014-12-23T12:23:00z</v>
       </c>
-      <c r="Q11" s="228"/>
-      <c r="R11" s="229"/>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="251"/>
       <c r="T11" s="84"/>
       <c r="U11" s="84"/>
       <c r="V11" s="86"/>
       <c r="W11" s="86"/>
     </row>
     <row r="12" spans="3:23" ht="15.75" thickBot="1">
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="257"/>
       <c r="I12" s="189" t="s">
         <v>115</v>
       </c>
@@ -10947,9 +11438,9 @@
         <f>IF(P10=N10,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="230"/>
-      <c r="R12" s="231"/>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="252"/>
+      <c r="R12" s="253"/>
       <c r="T12" s="84"/>
       <c r="U12" s="84"/>
       <c r="V12" s="86"/>
@@ -11341,12 +11832,12 @@
       <c r="R27" s="39"/>
     </row>
     <row r="29" spans="3:29" ht="15.75">
-      <c r="E29" s="219" t="s">
+      <c r="E29" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
       <c r="I29" s="143" t="s">
         <v>107</v>
       </c>
@@ -11375,100 +11866,100 @@
       <c r="P30" s="145"/>
     </row>
     <row r="31" spans="3:29" ht="15.75" customHeight="1">
-      <c r="C31" s="247" t="s">
+      <c r="C31" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="217" t="s">
+      <c r="D31" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="217" t="s">
+      <c r="E31" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="217" t="s">
+      <c r="F31" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="217" t="s">
+      <c r="G31" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="217" t="s">
+      <c r="H31" s="238" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="240" t="s">
+      <c r="I31" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="217" t="s">
+      <c r="J31" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="217" t="s">
+      <c r="K31" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="217" t="s">
+      <c r="L31" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="217" t="s">
+      <c r="M31" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="217" t="s">
+      <c r="N31" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="O31" s="217" t="s">
+      <c r="O31" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="249" t="s">
+      <c r="P31" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="Q31" s="249"/>
-      <c r="R31" s="249"/>
-      <c r="S31" s="249"/>
-      <c r="T31" s="222" t="s">
+      <c r="Q31" s="242"/>
+      <c r="R31" s="242"/>
+      <c r="S31" s="242"/>
+      <c r="T31" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222" t="s">
+      <c r="U31" s="231"/>
+      <c r="V31" s="231" t="s">
         <v>112</v>
       </c>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222" t="s">
+      <c r="W31" s="231"/>
+      <c r="X31" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222" t="s">
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222" t="s">
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="AC31" s="242"/>
+      <c r="AC31" s="233"/>
     </row>
     <row r="32" spans="3:29" ht="15.75" customHeight="1">
-      <c r="C32" s="248"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="250"/>
-      <c r="Q32" s="250"/>
-      <c r="R32" s="250"/>
-      <c r="S32" s="250"/>
-      <c r="T32" s="223"/>
-      <c r="U32" s="223"/>
-      <c r="V32" s="223"/>
-      <c r="W32" s="223"/>
-      <c r="X32" s="223"/>
-      <c r="Y32" s="223"/>
-      <c r="Z32" s="223"/>
-      <c r="AA32" s="223"/>
-      <c r="AB32" s="223"/>
-      <c r="AC32" s="243"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="239"/>
+      <c r="M32" s="239"/>
+      <c r="N32" s="239"/>
+      <c r="O32" s="239"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="234"/>
     </row>
     <row r="33" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
       <c r="C33" s="179" t="s">
@@ -13354,43 +13845,42 @@
     <row r="59" spans="1:29" ht="22.5" customHeight="1"/>
     <row r="60" spans="1:29" ht="3" customHeight="1" thickBot="1"/>
     <row r="61" spans="1:29" ht="21.75" thickBot="1">
-      <c r="C61" s="244" t="s">
+      <c r="C61" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="245"/>
-      <c r="E61" s="245"/>
-      <c r="F61" s="245"/>
-      <c r="G61" s="245"/>
-      <c r="H61" s="245"/>
-      <c r="I61" s="245"/>
-      <c r="J61" s="245"/>
-      <c r="K61" s="245"/>
-      <c r="L61" s="245"/>
-      <c r="M61" s="245"/>
-      <c r="N61" s="245"/>
-      <c r="O61" s="245"/>
-      <c r="P61" s="245"/>
-      <c r="Q61" s="245"/>
-      <c r="R61" s="245"/>
-      <c r="S61" s="246"/>
+      <c r="D61" s="236"/>
+      <c r="E61" s="236"/>
+      <c r="F61" s="236"/>
+      <c r="G61" s="236"/>
+      <c r="H61" s="236"/>
+      <c r="I61" s="236"/>
+      <c r="J61" s="236"/>
+      <c r="K61" s="236"/>
+      <c r="L61" s="236"/>
+      <c r="M61" s="236"/>
+      <c r="N61" s="236"/>
+      <c r="O61" s="236"/>
+      <c r="P61" s="236"/>
+      <c r="Q61" s="236"/>
+      <c r="R61" s="236"/>
+      <c r="S61" s="237"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="37">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:T2"/>
-    <mergeCell ref="C4:U4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C61:S61"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="T31:U32"/>
+    <mergeCell ref="V31:W32"/>
+    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="Z31:AA32"/>
+    <mergeCell ref="AB31:AC32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="P11:R12"/>
     <mergeCell ref="E29:H29"/>
@@ -13401,19 +13891,20 @@
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
-    <mergeCell ref="Z31:AA32"/>
-    <mergeCell ref="AB31:AC32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="C61:S61"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="T31:U32"/>
-    <mergeCell ref="V31:W32"/>
-    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:T2"/>
+    <mergeCell ref="C4:U4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:U6"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choix Cardinal" sqref="P9">
@@ -13455,28 +13946,28 @@
   <sheetData>
     <row r="1" spans="3:23" ht="3" customHeight="1" thickBot="1"/>
     <row r="2" spans="3:23" ht="21">
-      <c r="C2" s="259" t="s">
+      <c r="C2" s="229" t="s">
         <v>54</v>
       </c>
-      <c r="D2" s="260"/>
-      <c r="E2" s="260"/>
-      <c r="F2" s="251" t="s">
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="220" t="s">
         <v>118</v>
       </c>
-      <c r="G2" s="251"/>
-      <c r="H2" s="251"/>
-      <c r="I2" s="251"/>
-      <c r="J2" s="251"/>
-      <c r="K2" s="251"/>
-      <c r="L2" s="251"/>
-      <c r="M2" s="251"/>
-      <c r="N2" s="251"/>
-      <c r="O2" s="251"/>
-      <c r="P2" s="251"/>
-      <c r="Q2" s="251"/>
-      <c r="R2" s="251"/>
-      <c r="S2" s="251"/>
-      <c r="T2" s="251"/>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
       <c r="U2" s="26"/>
     </row>
     <row r="3" spans="3:23">
@@ -13501,27 +13992,27 @@
       <c r="U3" s="29"/>
     </row>
     <row r="4" spans="3:23" ht="21.75" thickBot="1">
-      <c r="C4" s="252" t="s">
+      <c r="C4" s="221" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="253"/>
-      <c r="E4" s="253"/>
-      <c r="F4" s="253"/>
-      <c r="G4" s="253"/>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253"/>
-      <c r="J4" s="253"/>
-      <c r="K4" s="253"/>
-      <c r="L4" s="253"/>
-      <c r="M4" s="253"/>
-      <c r="N4" s="253"/>
-      <c r="O4" s="253"/>
-      <c r="P4" s="253"/>
-      <c r="Q4" s="253"/>
-      <c r="R4" s="253"/>
-      <c r="S4" s="253"/>
-      <c r="T4" s="253"/>
-      <c r="U4" s="254"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223"/>
     </row>
     <row r="5" spans="3:23" ht="15.75" customHeight="1" thickBot="1">
       <c r="C5" s="56"/>
@@ -13540,37 +14031,37 @@
       <c r="R5" s="56"/>
     </row>
     <row r="6" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
-      <c r="C6" s="220" t="s">
+      <c r="C6" s="245" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="221"/>
-      <c r="E6" s="221"/>
-      <c r="F6" s="258">
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="227">
         <v>43</v>
       </c>
-      <c r="G6" s="258"/>
-      <c r="H6" s="221" t="s">
+      <c r="G6" s="227"/>
+      <c r="H6" s="228" t="s">
         <v>77</v>
       </c>
-      <c r="I6" s="221"/>
-      <c r="J6" s="221"/>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
       <c r="K6" s="121"/>
       <c r="L6" s="121"/>
       <c r="M6" s="121"/>
       <c r="N6" s="120"/>
       <c r="O6" s="121"/>
-      <c r="P6" s="257">
-        <v>1</v>
-      </c>
-      <c r="Q6" s="257"/>
+      <c r="P6" s="226">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="226"/>
       <c r="R6" s="206" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="255">
+      <c r="S6" s="224">
         <v>39553</v>
       </c>
-      <c r="T6" s="255"/>
-      <c r="U6" s="256"/>
+      <c r="T6" s="224"/>
+      <c r="U6" s="225"/>
     </row>
     <row r="7" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
       <c r="C7" s="88"/>
@@ -13592,10 +14083,10 @@
     <row r="8" spans="3:23" ht="15" customHeight="1">
       <c r="C8" s="108"/>
       <c r="D8" s="87"/>
-      <c r="G8" s="238" t="s">
+      <c r="G8" s="260" t="s">
         <v>97</v>
       </c>
-      <c r="H8" s="239"/>
+      <c r="H8" s="261"/>
       <c r="I8" s="207" t="s">
         <v>90</v>
       </c>
@@ -13610,18 +14101,18 @@
       <c r="P8" s="106" t="s">
         <v>92</v>
       </c>
-      <c r="Q8" s="226" t="s">
+      <c r="Q8" s="248" t="s">
         <v>87</v>
       </c>
-      <c r="R8" s="227"/>
+      <c r="R8" s="249"/>
     </row>
     <row r="9" spans="3:23" ht="14.25" customHeight="1">
       <c r="C9" s="108"/>
       <c r="D9" s="87"/>
-      <c r="G9" s="236" t="s">
+      <c r="G9" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="H9" s="237"/>
+      <c r="H9" s="259"/>
       <c r="I9" s="92">
         <v>2</v>
       </c>
@@ -13648,19 +14139,19 @@
       <c r="P9" s="93" t="s">
         <v>32</v>
       </c>
-      <c r="Q9" s="224">
+      <c r="Q9" s="246">
         <f>IF(ISBLANK(I9),"",IF(ISBLANK(J9),"",IF(J9&gt;60,"ERREUR !!",O11*(I9+(J9/60)))))</f>
         <v>2</v>
       </c>
-      <c r="R9" s="225"/>
+      <c r="R9" s="247"/>
     </row>
     <row r="10" spans="3:23" ht="15" customHeight="1">
       <c r="C10" s="108"/>
       <c r="D10" s="87"/>
-      <c r="G10" s="236" t="s">
+      <c r="G10" s="258" t="s">
         <v>89</v>
       </c>
-      <c r="H10" s="237"/>
+      <c r="H10" s="259"/>
       <c r="I10" s="92">
         <v>10</v>
       </c>
@@ -13687,19 +14178,19 @@
       <c r="P10" s="93" t="s">
         <v>95</v>
       </c>
-      <c r="Q10" s="224">
+      <c r="Q10" s="246">
         <f>IF(ISBLANK(I10),"",IF(ISBLANK(J10),"",IF(J10&gt;60,"ERREUR !!",O12*(I10+(J10/60)))))</f>
         <v>-10</v>
       </c>
-      <c r="R10" s="225"/>
+      <c r="R10" s="247"/>
       <c r="S10" s="85"/>
       <c r="T10" s="85"/>
     </row>
     <row r="11" spans="3:23">
-      <c r="G11" s="232" t="s">
+      <c r="G11" s="254" t="s">
         <v>114</v>
       </c>
-      <c r="H11" s="233"/>
+      <c r="H11" s="255"/>
       <c r="I11" s="188" t="s">
         <v>69</v>
       </c>
@@ -13717,20 +14208,20 @@
         <f>IF(P9=M10,-1,1)</f>
         <v>1</v>
       </c>
-      <c r="P11" s="228" t="str">
+      <c r="P11" s="250" t="str">
         <f>TEXT(J11,"aaaa-mm-jj")&amp;"T"&amp;TEXT(J12,"hh:mm:ss")&amp;"z"</f>
         <v>2014-12-23T12:23:00z</v>
       </c>
-      <c r="Q11" s="228"/>
-      <c r="R11" s="229"/>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="251"/>
       <c r="T11" s="84"/>
       <c r="U11" s="84"/>
       <c r="V11" s="86"/>
       <c r="W11" s="86"/>
     </row>
     <row r="12" spans="3:23" ht="15.75" thickBot="1">
-      <c r="G12" s="234"/>
-      <c r="H12" s="235"/>
+      <c r="G12" s="256"/>
+      <c r="H12" s="257"/>
       <c r="I12" s="189" t="s">
         <v>115</v>
       </c>
@@ -13748,9 +14239,9 @@
         <f>IF(P10=N10,-1,1)</f>
         <v>-1</v>
       </c>
-      <c r="P12" s="230"/>
-      <c r="Q12" s="230"/>
-      <c r="R12" s="231"/>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="252"/>
+      <c r="R12" s="253"/>
       <c r="T12" s="84"/>
       <c r="U12" s="84"/>
       <c r="V12" s="86"/>
@@ -14142,12 +14633,12 @@
       <c r="R27" s="39"/>
     </row>
     <row r="29" spans="3:29" ht="15.75">
-      <c r="E29" s="219" t="s">
+      <c r="E29" s="244" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="219"/>
-      <c r="G29" s="219"/>
-      <c r="H29" s="219"/>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
       <c r="I29" s="143" t="s">
         <v>107</v>
       </c>
@@ -14176,100 +14667,100 @@
       <c r="P30" s="145"/>
     </row>
     <row r="31" spans="3:29" ht="15.75" customHeight="1">
-      <c r="C31" s="247" t="s">
+      <c r="C31" s="240" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="217" t="s">
+      <c r="D31" s="238" t="s">
         <v>59</v>
       </c>
-      <c r="E31" s="217" t="s">
+      <c r="E31" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="F31" s="217" t="s">
+      <c r="F31" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="217" t="s">
+      <c r="G31" s="238" t="s">
         <v>55</v>
       </c>
-      <c r="H31" s="217" t="s">
+      <c r="H31" s="238" t="s">
         <v>119</v>
       </c>
-      <c r="I31" s="240" t="s">
+      <c r="I31" s="262" t="s">
         <v>120</v>
       </c>
-      <c r="J31" s="217" t="s">
+      <c r="J31" s="238" t="s">
         <v>106</v>
       </c>
-      <c r="K31" s="217" t="s">
+      <c r="K31" s="238" t="s">
         <v>56</v>
       </c>
-      <c r="L31" s="217" t="s">
+      <c r="L31" s="238" t="s">
         <v>57</v>
       </c>
-      <c r="M31" s="217" t="s">
+      <c r="M31" s="238" t="s">
         <v>61</v>
       </c>
-      <c r="N31" s="217" t="s">
+      <c r="N31" s="238" t="s">
         <v>60</v>
       </c>
-      <c r="O31" s="217" t="s">
+      <c r="O31" s="238" t="s">
         <v>58</v>
       </c>
-      <c r="P31" s="249" t="s">
+      <c r="P31" s="242" t="s">
         <v>116</v>
       </c>
-      <c r="Q31" s="249"/>
-      <c r="R31" s="249"/>
-      <c r="S31" s="249"/>
-      <c r="T31" s="222" t="s">
+      <c r="Q31" s="242"/>
+      <c r="R31" s="242"/>
+      <c r="S31" s="242"/>
+      <c r="T31" s="231" t="s">
         <v>111</v>
       </c>
-      <c r="U31" s="222"/>
-      <c r="V31" s="222" t="s">
+      <c r="U31" s="231"/>
+      <c r="V31" s="231" t="s">
         <v>112</v>
       </c>
-      <c r="W31" s="222"/>
-      <c r="X31" s="222" t="s">
+      <c r="W31" s="231"/>
+      <c r="X31" s="231" t="s">
         <v>113</v>
       </c>
-      <c r="Y31" s="222"/>
-      <c r="Z31" s="222" t="s">
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231" t="s">
         <v>109</v>
       </c>
-      <c r="AA31" s="222"/>
-      <c r="AB31" s="222" t="s">
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231" t="s">
         <v>110</v>
       </c>
-      <c r="AC31" s="242"/>
+      <c r="AC31" s="233"/>
     </row>
     <row r="32" spans="3:29" ht="15.75" customHeight="1">
-      <c r="C32" s="248"/>
-      <c r="D32" s="218"/>
-      <c r="E32" s="218"/>
-      <c r="F32" s="218"/>
-      <c r="G32" s="218"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="241"/>
-      <c r="J32" s="218"/>
-      <c r="K32" s="218"/>
-      <c r="L32" s="218"/>
-      <c r="M32" s="218"/>
-      <c r="N32" s="218"/>
-      <c r="O32" s="218"/>
-      <c r="P32" s="250"/>
-      <c r="Q32" s="250"/>
-      <c r="R32" s="250"/>
-      <c r="S32" s="250"/>
-      <c r="T32" s="223"/>
-      <c r="U32" s="223"/>
-      <c r="V32" s="223"/>
-      <c r="W32" s="223"/>
-      <c r="X32" s="223"/>
-      <c r="Y32" s="223"/>
-      <c r="Z32" s="223"/>
-      <c r="AA32" s="223"/>
-      <c r="AB32" s="223"/>
-      <c r="AC32" s="243"/>
+      <c r="C32" s="241"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="239"/>
+      <c r="M32" s="239"/>
+      <c r="N32" s="239"/>
+      <c r="O32" s="239"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="234"/>
     </row>
     <row r="33" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
       <c r="C33" s="179" t="s">
@@ -16267,43 +16758,42 @@
     <row r="59" spans="1:29" ht="22.5" customHeight="1"/>
     <row r="60" spans="1:29" ht="3" customHeight="1" thickBot="1"/>
     <row r="61" spans="1:29" ht="21.75" thickBot="1">
-      <c r="C61" s="244" t="s">
+      <c r="C61" s="235" t="s">
         <v>101</v>
       </c>
-      <c r="D61" s="245"/>
-      <c r="E61" s="245"/>
-      <c r="F61" s="245"/>
-      <c r="G61" s="245"/>
-      <c r="H61" s="245"/>
-      <c r="I61" s="245"/>
-      <c r="J61" s="245"/>
-      <c r="K61" s="245"/>
-      <c r="L61" s="245"/>
-      <c r="M61" s="245"/>
-      <c r="N61" s="245"/>
-      <c r="O61" s="245"/>
-      <c r="P61" s="245"/>
-      <c r="Q61" s="245"/>
-      <c r="R61" s="245"/>
-      <c r="S61" s="246"/>
+      <c r="D61" s="236"/>
+      <c r="E61" s="236"/>
+      <c r="F61" s="236"/>
+      <c r="G61" s="236"/>
+      <c r="H61" s="236"/>
+      <c r="I61" s="236"/>
+      <c r="J61" s="236"/>
+      <c r="K61" s="236"/>
+      <c r="L61" s="236"/>
+      <c r="M61" s="236"/>
+      <c r="N61" s="236"/>
+      <c r="O61" s="236"/>
+      <c r="P61" s="236"/>
+      <c r="Q61" s="236"/>
+      <c r="R61" s="236"/>
+      <c r="S61" s="237"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="37">
-    <mergeCell ref="C2:E2"/>
-    <mergeCell ref="F2:T2"/>
-    <mergeCell ref="C4:U4"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="P6:Q6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="Q8:R8"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C61:S61"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="T31:U32"/>
+    <mergeCell ref="V31:W32"/>
+    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="Z31:AA32"/>
+    <mergeCell ref="AB31:AC32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
     <mergeCell ref="G11:H12"/>
     <mergeCell ref="P11:R12"/>
     <mergeCell ref="E29:H29"/>
@@ -16314,19 +16804,20 @@
     <mergeCell ref="G31:G32"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="I31:I32"/>
-    <mergeCell ref="Z31:AA32"/>
-    <mergeCell ref="AB31:AC32"/>
-    <mergeCell ref="J31:J32"/>
-    <mergeCell ref="K31:K32"/>
-    <mergeCell ref="L31:L32"/>
-    <mergeCell ref="M31:M32"/>
-    <mergeCell ref="N31:N32"/>
-    <mergeCell ref="O31:O32"/>
-    <mergeCell ref="C61:S61"/>
-    <mergeCell ref="P31:S32"/>
-    <mergeCell ref="T31:U32"/>
-    <mergeCell ref="V31:W32"/>
-    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:T2"/>
+    <mergeCell ref="C4:U4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:U6"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="4">
     <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I29">
@@ -16348,6 +16839,2919 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AC61"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I44" sqref="I44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="0.85546875" style="185" customWidth="1"/>
+    <col min="3" max="3" width="3.7109375" style="185" customWidth="1"/>
+    <col min="4" max="9" width="10.28515625" style="185" customWidth="1"/>
+    <col min="10" max="10" width="10.7109375" style="185" customWidth="1"/>
+    <col min="11" max="15" width="10.7109375" style="185" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="10.7109375" style="185" customWidth="1"/>
+    <col min="17" max="29" width="10.28515625" style="185" customWidth="1"/>
+    <col min="30" max="16384" width="11.42578125" style="185"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:23" ht="3" customHeight="1" thickBot="1"/>
+    <row r="2" spans="3:23" ht="21">
+      <c r="C2" s="229" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="230"/>
+      <c r="E2" s="230"/>
+      <c r="F2" s="220" t="s">
+        <v>118</v>
+      </c>
+      <c r="G2" s="220"/>
+      <c r="H2" s="220"/>
+      <c r="I2" s="220"/>
+      <c r="J2" s="220"/>
+      <c r="K2" s="220"/>
+      <c r="L2" s="220"/>
+      <c r="M2" s="220"/>
+      <c r="N2" s="220"/>
+      <c r="O2" s="220"/>
+      <c r="P2" s="220"/>
+      <c r="Q2" s="220"/>
+      <c r="R2" s="220"/>
+      <c r="S2" s="220"/>
+      <c r="T2" s="220"/>
+      <c r="U2" s="26"/>
+    </row>
+    <row r="3" spans="3:23">
+      <c r="C3" s="30"/>
+      <c r="D3" s="53"/>
+      <c r="E3" s="53"/>
+      <c r="F3" s="53"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="29"/>
+    </row>
+    <row r="4" spans="3:23" ht="21.75" thickBot="1">
+      <c r="C4" s="221" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="222"/>
+      <c r="H4" s="222"/>
+      <c r="I4" s="222"/>
+      <c r="J4" s="222"/>
+      <c r="K4" s="222"/>
+      <c r="L4" s="222"/>
+      <c r="M4" s="222"/>
+      <c r="N4" s="222"/>
+      <c r="O4" s="222"/>
+      <c r="P4" s="222"/>
+      <c r="Q4" s="222"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="222"/>
+      <c r="T4" s="222"/>
+      <c r="U4" s="223"/>
+    </row>
+    <row r="5" spans="3:23" ht="15.75" customHeight="1" thickBot="1">
+      <c r="C5" s="56"/>
+      <c r="D5" s="56"/>
+      <c r="E5" s="56"/>
+      <c r="F5" s="56"/>
+      <c r="G5" s="56"/>
+      <c r="J5" s="56"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="56"/>
+      <c r="N5" s="56"/>
+      <c r="O5" s="56"/>
+      <c r="P5" s="56"/>
+      <c r="Q5" s="56"/>
+      <c r="R5" s="56"/>
+    </row>
+    <row r="6" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
+      <c r="C6" s="245" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="228"/>
+      <c r="E6" s="228"/>
+      <c r="F6" s="227">
+        <v>43</v>
+      </c>
+      <c r="G6" s="227"/>
+      <c r="H6" s="228" t="s">
+        <v>77</v>
+      </c>
+      <c r="I6" s="228"/>
+      <c r="J6" s="228"/>
+      <c r="K6" s="121"/>
+      <c r="L6" s="121"/>
+      <c r="M6" s="121"/>
+      <c r="N6" s="120"/>
+      <c r="O6" s="121"/>
+      <c r="P6" s="226">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="226"/>
+      <c r="R6" s="218" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="224">
+        <v>39553</v>
+      </c>
+      <c r="T6" s="224"/>
+      <c r="U6" s="225"/>
+    </row>
+    <row r="7" spans="3:23" ht="16.5" customHeight="1" thickBot="1">
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+      <c r="K7" s="87"/>
+      <c r="L7" s="87"/>
+      <c r="M7" s="87"/>
+      <c r="N7" s="87"/>
+      <c r="O7" s="91"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="90"/>
+    </row>
+    <row r="8" spans="3:23" ht="15" customHeight="1">
+      <c r="C8" s="108"/>
+      <c r="D8" s="87"/>
+      <c r="G8" s="260" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="261"/>
+      <c r="I8" s="219" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="219" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="105"/>
+      <c r="N8" s="105"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="106" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="248" t="s">
+        <v>87</v>
+      </c>
+      <c r="R8" s="249"/>
+    </row>
+    <row r="9" spans="3:23" ht="14.25" customHeight="1">
+      <c r="C9" s="108"/>
+      <c r="D9" s="87"/>
+      <c r="G9" s="258" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="259"/>
+      <c r="I9" s="92">
+        <v>2</v>
+      </c>
+      <c r="J9" s="93">
+        <v>0</v>
+      </c>
+      <c r="K9" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="104" t="str">
+        <f>IF(P9=M9,"+","-")</f>
+        <v>+</v>
+      </c>
+      <c r="M9" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="103" t="s">
+        <v>94</v>
+      </c>
+      <c r="O9" s="66" t="str">
+        <f>IF(ISBLANK(I9),"",IF(ISBLANK(J9),"",IF(P9=M10,L9&amp;N11,N11)))</f>
+        <v>2°0</v>
+      </c>
+      <c r="P9" s="93" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" s="246">
+        <f>IF(ISBLANK(I9),"",IF(ISBLANK(J9),"",IF(J9&gt;60,"ERREUR !!",O11*(I9+(J9/60)))))</f>
+        <v>2</v>
+      </c>
+      <c r="R9" s="247"/>
+    </row>
+    <row r="10" spans="3:23" ht="15" customHeight="1">
+      <c r="C10" s="108"/>
+      <c r="D10" s="87"/>
+      <c r="G10" s="258" t="s">
+        <v>89</v>
+      </c>
+      <c r="H10" s="259"/>
+      <c r="I10" s="92">
+        <v>10</v>
+      </c>
+      <c r="J10" s="93">
+        <v>0</v>
+      </c>
+      <c r="K10" s="103" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="104" t="str">
+        <f>IF(P10=N9,"+","-")</f>
+        <v>-</v>
+      </c>
+      <c r="M10" s="103" t="s">
+        <v>93</v>
+      </c>
+      <c r="N10" s="103" t="s">
+        <v>95</v>
+      </c>
+      <c r="O10" s="61" t="str">
+        <f>IF(ISBLANK(I10),"",IF(ISBLANK(J10),"",IF(P10=N10,L10&amp;N12,N12)))</f>
+        <v>-10°0</v>
+      </c>
+      <c r="P10" s="93" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q10" s="246">
+        <f>IF(ISBLANK(I10),"",IF(ISBLANK(J10),"",IF(J10&gt;60,"ERREUR !!",O12*(I10+(J10/60)))))</f>
+        <v>-10</v>
+      </c>
+      <c r="R10" s="247"/>
+      <c r="S10" s="85"/>
+      <c r="T10" s="85"/>
+    </row>
+    <row r="11" spans="3:23">
+      <c r="G11" s="254" t="s">
+        <v>114</v>
+      </c>
+      <c r="H11" s="255"/>
+      <c r="I11" s="188" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="190">
+        <v>40534</v>
+      </c>
+      <c r="K11" s="190"/>
+      <c r="L11" s="190"/>
+      <c r="M11" s="190"/>
+      <c r="N11" s="191" t="str">
+        <f>I9&amp;"°"&amp;J9</f>
+        <v>2°0</v>
+      </c>
+      <c r="O11" s="192">
+        <f>IF(P9=M10,-1,1)</f>
+        <v>1</v>
+      </c>
+      <c r="P11" s="250" t="str">
+        <f>TEXT(J11,"aaaa-mm-jj")&amp;"T"&amp;TEXT(J12,"hh:mm:ss")&amp;"z"</f>
+        <v>2014-12-23T12:23:00z</v>
+      </c>
+      <c r="Q11" s="250"/>
+      <c r="R11" s="251"/>
+      <c r="T11" s="84"/>
+      <c r="U11" s="84"/>
+      <c r="V11" s="86"/>
+      <c r="W11" s="86"/>
+    </row>
+    <row r="12" spans="3:23" ht="15.75" thickBot="1">
+      <c r="G12" s="256"/>
+      <c r="H12" s="257"/>
+      <c r="I12" s="189" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" s="193">
+        <v>0.51597222222222217</v>
+      </c>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="193"/>
+      <c r="N12" s="194" t="str">
+        <f>I10&amp;"°"&amp;J10</f>
+        <v>10°0</v>
+      </c>
+      <c r="O12" s="192">
+        <f>IF(P10=N10,-1,1)</f>
+        <v>-1</v>
+      </c>
+      <c r="P12" s="252"/>
+      <c r="Q12" s="252"/>
+      <c r="R12" s="253"/>
+      <c r="T12" s="84"/>
+      <c r="U12" s="84"/>
+      <c r="V12" s="86"/>
+      <c r="W12" s="86"/>
+    </row>
+    <row r="13" spans="3:23" ht="15.75" thickBot="1">
+      <c r="C13" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="45"/>
+      <c r="E13" s="53"/>
+      <c r="K13" s="186"/>
+      <c r="L13" s="186"/>
+      <c r="M13" s="186"/>
+      <c r="N13" s="186"/>
+      <c r="O13" s="186"/>
+      <c r="P13" s="186"/>
+      <c r="Q13" s="187"/>
+    </row>
+    <row r="14" spans="3:23" ht="15" customHeight="1">
+      <c r="C14" s="202" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="195"/>
+      <c r="E14" s="195"/>
+      <c r="F14" s="195"/>
+      <c r="G14" s="195"/>
+      <c r="H14" s="196"/>
+      <c r="I14" s="196"/>
+      <c r="J14" s="196"/>
+      <c r="K14" s="195"/>
+      <c r="L14" s="195"/>
+      <c r="M14" s="195"/>
+      <c r="N14" s="196"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="196"/>
+      <c r="Q14" s="62" t="s">
+        <v>52</v>
+      </c>
+      <c r="R14" s="70">
+        <v>23.2</v>
+      </c>
+      <c r="S14" s="197" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="3:23" ht="14.25" customHeight="1">
+      <c r="C15" s="203" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="198"/>
+      <c r="E15" s="198"/>
+      <c r="F15" s="198"/>
+      <c r="G15" s="198"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="77"/>
+      <c r="K15" s="198"/>
+      <c r="L15" s="198"/>
+      <c r="M15" s="198"/>
+      <c r="N15" s="77"/>
+      <c r="O15" s="63"/>
+      <c r="P15" s="77"/>
+      <c r="Q15" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="R15" s="71">
+        <v>23.2</v>
+      </c>
+      <c r="S15" s="199" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="3:23">
+      <c r="C16" s="203" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="198"/>
+      <c r="E16" s="198"/>
+      <c r="F16" s="198"/>
+      <c r="G16" s="198"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="77"/>
+      <c r="J16" s="77"/>
+      <c r="K16" s="198"/>
+      <c r="L16" s="198"/>
+      <c r="M16" s="198"/>
+      <c r="N16" s="77"/>
+      <c r="O16" s="64"/>
+      <c r="P16" s="77"/>
+      <c r="Q16" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="R16" s="73">
+        <v>4.9989999999999997</v>
+      </c>
+      <c r="S16" s="199" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="3:29" ht="15.75" thickBot="1">
+      <c r="C17" s="204" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="200"/>
+      <c r="E17" s="200"/>
+      <c r="F17" s="200"/>
+      <c r="G17" s="200"/>
+      <c r="H17" s="78"/>
+      <c r="I17" s="78"/>
+      <c r="J17" s="78"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="200"/>
+      <c r="M17" s="200"/>
+      <c r="N17" s="78"/>
+      <c r="O17" s="65"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="65" t="s">
+        <v>76</v>
+      </c>
+      <c r="R17" s="74">
+        <v>0</v>
+      </c>
+      <c r="S17" s="201" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="3:29" hidden="1">
+      <c r="C18" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="58"/>
+      <c r="J18" s="58"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="79" t="s">
+        <v>27</v>
+      </c>
+      <c r="P18" s="72">
+        <f>(0.999842594+(0.00006793952*$R$14)-(0.00000909529*$R$14^2)+(0.0000001001685*$R$14^3)-(0.000000001120083*$R$14^4)+(0.000000000006536332*$R$14^5))</f>
+        <v>0.99749360354084526</v>
+      </c>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="29"/>
+    </row>
+    <row r="19" spans="3:29" hidden="1">
+      <c r="C19" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="58"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="79" t="s">
+        <v>83</v>
+      </c>
+      <c r="P19" s="72">
+        <f>$P$24*($P$18/'Titre d''iodate'!E19)</f>
+        <v>2.0001719598253646E-2</v>
+      </c>
+      <c r="Q19" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R19" s="29"/>
+    </row>
+    <row r="20" spans="3:29" hidden="1">
+      <c r="C20" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="58"/>
+      <c r="J20" s="58"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="79" t="s">
+        <v>84</v>
+      </c>
+      <c r="P20" s="72">
+        <f>5+'Correction de volume'!G8</f>
+        <v>5.0030899875600001</v>
+      </c>
+      <c r="Q20" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="R20" s="29"/>
+    </row>
+    <row r="21" spans="3:29" hidden="1">
+      <c r="C21" s="57" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58"/>
+      <c r="F21" s="58"/>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="58"/>
+      <c r="J21" s="58"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="79" t="s">
+        <v>85</v>
+      </c>
+      <c r="P21" s="72">
+        <f>P20*(1+0.00001*(R14-20))</f>
+        <v>5.0032500864396026</v>
+      </c>
+      <c r="Q21" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="R21" s="29"/>
+    </row>
+    <row r="22" spans="3:29" hidden="1">
+      <c r="C22" s="57" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="58"/>
+      <c r="J22" s="58"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="P22" s="76">
+        <f>$R$16*(1+0.00001*(20-$R$14))</f>
+        <v>4.9988400319999995</v>
+      </c>
+      <c r="Q22" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="R22" s="29"/>
+    </row>
+    <row r="23" spans="3:29" hidden="1">
+      <c r="C23" s="57" t="s">
+        <v>49</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="58"/>
+      <c r="J23" s="58"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="P23" s="76">
+        <f>$R$17*(1+0.00001*(20-$R$14))</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="R23" s="29"/>
+    </row>
+    <row r="24" spans="3:29" hidden="1">
+      <c r="C24" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="58"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="58"/>
+      <c r="J24" s="58"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="79" t="s">
+        <v>81</v>
+      </c>
+      <c r="P24" s="77">
+        <f>MAX('Titre d''iodate'!F7:F10)</f>
+        <v>2.0016010960489362E-2</v>
+      </c>
+      <c r="Q24" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R24" s="29"/>
+    </row>
+    <row r="25" spans="3:29" hidden="1">
+      <c r="C25" s="57" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="58"/>
+      <c r="J25" s="58"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="79" t="s">
+        <v>82</v>
+      </c>
+      <c r="P25" s="77">
+        <f>IF(ISBLANK(R14),"",IF(ISBLANK(P21),"",IF(ISBLANK(R17),"",(($P$24*$P$18)/($P$22-$P$23)))))</f>
+        <v>3.994095184818987E-3</v>
+      </c>
+      <c r="Q25" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="R25" s="29"/>
+    </row>
+    <row r="26" spans="3:29" hidden="1">
+      <c r="C26" s="94" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="95"/>
+      <c r="E26" s="95"/>
+      <c r="F26" s="95"/>
+      <c r="G26" s="95"/>
+      <c r="H26" s="95"/>
+      <c r="I26" s="95"/>
+      <c r="J26" s="95"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="79" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="77">
+        <f>2+('Correction de volume'!G10+'Correction de volume'!G9)</f>
+        <v>2.0038167470455202</v>
+      </c>
+      <c r="Q26" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="R26" s="29"/>
+    </row>
+    <row r="27" spans="3:29" ht="15.75" hidden="1" thickBot="1">
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="82"/>
+      <c r="L27" s="82"/>
+      <c r="M27" s="82"/>
+      <c r="N27" s="82"/>
+      <c r="O27" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="P27" s="78">
+        <v>1.6999999999999999E-3</v>
+      </c>
+      <c r="Q27" s="82"/>
+      <c r="R27" s="39"/>
+    </row>
+    <row r="29" spans="3:29" ht="15.75">
+      <c r="E29" s="244" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="244"/>
+      <c r="G29" s="244"/>
+      <c r="H29" s="244"/>
+      <c r="I29" s="143" t="s">
+        <v>107</v>
+      </c>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="145"/>
+      <c r="O29" s="144" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" ht="16.5" thickBot="1">
+      <c r="E30" s="217"/>
+      <c r="F30" s="217"/>
+      <c r="G30" s="217"/>
+      <c r="H30" s="217"/>
+      <c r="I30" s="217"/>
+      <c r="J30" s="149"/>
+      <c r="K30" s="148"/>
+      <c r="L30" s="148"/>
+      <c r="M30" s="148"/>
+      <c r="N30" s="145"/>
+      <c r="O30" s="145" t="s">
+        <v>107</v>
+      </c>
+      <c r="P30" s="145"/>
+    </row>
+    <row r="31" spans="3:29" ht="15.75" customHeight="1">
+      <c r="C31" s="240" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="238" t="s">
+        <v>59</v>
+      </c>
+      <c r="E31" s="238" t="s">
+        <v>98</v>
+      </c>
+      <c r="F31" s="238" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" s="238" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="238" t="s">
+        <v>119</v>
+      </c>
+      <c r="I31" s="262" t="s">
+        <v>120</v>
+      </c>
+      <c r="J31" s="238" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="238" t="s">
+        <v>56</v>
+      </c>
+      <c r="L31" s="238" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="238" t="s">
+        <v>61</v>
+      </c>
+      <c r="N31" s="238" t="s">
+        <v>60</v>
+      </c>
+      <c r="O31" s="238" t="s">
+        <v>58</v>
+      </c>
+      <c r="P31" s="242" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q31" s="242"/>
+      <c r="R31" s="242"/>
+      <c r="S31" s="242"/>
+      <c r="T31" s="231" t="s">
+        <v>111</v>
+      </c>
+      <c r="U31" s="231"/>
+      <c r="V31" s="231" t="s">
+        <v>112</v>
+      </c>
+      <c r="W31" s="231"/>
+      <c r="X31" s="231" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y31" s="231"/>
+      <c r="Z31" s="231" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA31" s="231"/>
+      <c r="AB31" s="231" t="s">
+        <v>110</v>
+      </c>
+      <c r="AC31" s="233"/>
+    </row>
+    <row r="32" spans="3:29" ht="15.75" customHeight="1">
+      <c r="C32" s="241"/>
+      <c r="D32" s="239"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="239"/>
+      <c r="G32" s="239"/>
+      <c r="H32" s="239"/>
+      <c r="I32" s="263"/>
+      <c r="J32" s="239"/>
+      <c r="K32" s="239"/>
+      <c r="L32" s="239"/>
+      <c r="M32" s="239"/>
+      <c r="N32" s="239"/>
+      <c r="O32" s="239"/>
+      <c r="P32" s="243"/>
+      <c r="Q32" s="243"/>
+      <c r="R32" s="243"/>
+      <c r="S32" s="243"/>
+      <c r="T32" s="232"/>
+      <c r="U32" s="232"/>
+      <c r="V32" s="232"/>
+      <c r="W32" s="232"/>
+      <c r="X32" s="232"/>
+      <c r="Y32" s="232"/>
+      <c r="Z32" s="232"/>
+      <c r="AA32" s="232"/>
+      <c r="AB32" s="232"/>
+      <c r="AC32" s="234"/>
+    </row>
+    <row r="33" spans="1:29" ht="14.25" customHeight="1" thickBot="1">
+      <c r="C33" s="179" t="s">
+        <v>99</v>
+      </c>
+      <c r="D33" s="180" t="s">
+        <v>33</v>
+      </c>
+      <c r="E33" s="180" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="181" t="s">
+        <v>103</v>
+      </c>
+      <c r="G33" s="180"/>
+      <c r="H33" s="181" t="s">
+        <v>62</v>
+      </c>
+      <c r="I33" s="181" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="181" t="s">
+        <v>103</v>
+      </c>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="181" t="s">
+        <v>41</v>
+      </c>
+      <c r="O33" s="180"/>
+      <c r="P33" s="181" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q33" s="181" t="s">
+        <v>105</v>
+      </c>
+      <c r="R33" s="181" t="s">
+        <v>104</v>
+      </c>
+      <c r="S33" s="181" t="s">
+        <v>63</v>
+      </c>
+      <c r="T33" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="U33" s="182" t="s">
+        <v>63</v>
+      </c>
+      <c r="V33" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="W33" s="182" t="s">
+        <v>63</v>
+      </c>
+      <c r="X33" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y33" s="182" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z33" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA33" s="182" t="s">
+        <v>63</v>
+      </c>
+      <c r="AB33" s="182" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC33" s="183" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" ht="15.75">
+      <c r="A34" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D34,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B34" s="150">
+        <f>IF(ISBLANK(D34),0,IF(ISBLANK(E34),0,IF(ISBLANK(F34),0,1)))</f>
+        <v>1</v>
+      </c>
+      <c r="C34" s="164">
+        <v>1</v>
+      </c>
+      <c r="D34" s="165">
+        <v>438</v>
+      </c>
+      <c r="E34" s="166">
+        <v>6.2</v>
+      </c>
+      <c r="F34" s="167">
+        <v>3.8559999999999999</v>
+      </c>
+      <c r="G34" s="168">
+        <v>34.623699999999999</v>
+      </c>
+      <c r="H34" s="165">
+        <v>1000</v>
+      </c>
+      <c r="I34" s="165">
+        <v>1006</v>
+      </c>
+      <c r="J34" s="169">
+        <f>IF(ISBLANK(D34),"",IF(VLOOKUP(D34,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D34&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D34&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D34,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>118.5</v>
+      </c>
+      <c r="K34" s="170">
+        <f>IF(ISBLANK(E34),"",(0.000824493-(0.0000040899*E34)+(0.000000076438*E34^2)-(0.00000000082467*E34^3)+(0.0000000000053875*E34^4)))</f>
+        <v>8.0188531551925993E-4</v>
+      </c>
+      <c r="L34" s="170">
+        <f>IF(ISBLANK(E34),"",(-0.00000572466+(0.00000010227*E34)-(0.0000000016546*E34^2)))</f>
+        <v>-5.1541888239999998E-6</v>
+      </c>
+      <c r="M34" s="170">
+        <f>IF(ISBLANK(E34),"",IF(ISBLANK(G34),(O34+(K34*35)+(L34*35^1.5)+(0.00000048314*35^2)),(O34+(K34*G34)+(L34*G34^1.5)+(0.00000048314*G34^2))))</f>
+        <v>1.0272298234333421</v>
+      </c>
+      <c r="N34" s="171">
+        <f>IF(ISBLANK(D34),"",IF(ISBLANK(G34),J34*(1+0.00001*(35-20)),J34*(1+0.00001*(G34-20))))</f>
+        <v>118.51732908450001</v>
+      </c>
+      <c r="O34" s="170">
+        <f>IF(ISBLANK(E34),"",(0.999842594+(0.00006793952*E34)-(0.00000909529*E34^2)+(0.0000001001685*E34^3)-(0.000000001120083*E34^4)+(0.000000000006536332*E34^5)))</f>
+        <v>0.99993647384387596</v>
+      </c>
+      <c r="P34" s="172">
+        <f>IF(ISBLANK($R$16),"",IF(A34=0,"",IF(ISBLANK($R$17),"",IF(B34=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D34&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D34&gt;1000),"N° Flac.",IF(AND(D34&gt;1202,D34&lt;2001),"Err. N°",IF(AND(D34&gt;499,D34&lt;1141),"Err.N°",(((((F34)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N34)-($P$26))))))))))))</f>
+        <v>3.6940362814860923</v>
+      </c>
+      <c r="Q34" s="173">
+        <f t="shared" ref="Q34:Q57" si="0">IF(ISBLANK($R$16),"",IF(A34=0,"",IF(ISBLANK($R$17),"",IF(AND(D34&gt;1202,D34&lt;2001),"Err. N°",IF(AND(D34&gt;499,D34&lt;1141),"Err.N°",IF(B34=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D34&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D34&gt;1000),"N° Flac.",P34*M34)))))))))</f>
+        <v>3.7946242371873184</v>
+      </c>
+      <c r="R34" s="174">
+        <f t="shared" ref="R34:R57" si="1">IF(ISBLANK($R$16),"",IF(A34=0,"",IF(ISBLANK($R$17),"",IF(B34=0,"",IF(ISBLANK(J34),"",IF(AND(D34&gt;1202,D34&lt;2001),"Err. N°",IF(AND(D34&gt;499,D34&lt;1141),"Err.N°",IF($I$29=$O$28,"",IF(AND($I$29=$O$29,D34&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D34&gt;1000),"N° Flac.",((44.66*P34))))))))))))</f>
+        <v>164.97566033116888</v>
+      </c>
+      <c r="S34" s="174">
+        <f t="shared" ref="S34:S57" si="2">IF(ISBLANK($R$16),"",IF(A34=0,"",IF(ISBLANK($R$17),"",IF(B34=0,"",IF(ISBLANK(J34),"",IF(AND(D34&gt;1202,D34&lt;2001),"Err. N°",IF(AND(D34&gt;499,D34&lt;1141),"Err.N°",IF($I$29=$O$28,"",IF(AND($I$29=$O$29,D34&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D34&gt;1000),"N° Flac.",((44.66*P34)/M34)))))))))))</f>
+        <v>160.6024830741047</v>
+      </c>
+      <c r="T34" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="U34" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="V34" s="176"/>
+      <c r="W34" s="177" t="s">
+        <v>125</v>
+      </c>
+      <c r="X34" s="175"/>
+      <c r="Y34" s="175" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z34" s="175"/>
+      <c r="AA34" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB34" s="175"/>
+      <c r="AC34" s="178" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" ht="15.75">
+      <c r="A35" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D35,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B35" s="150">
+        <f t="shared" ref="B35:B57" si="3">IF(ISBLANK(D35),0,IF(ISBLANK(E35),0,IF(ISBLANK(F35),0,1)))</f>
+        <v>1</v>
+      </c>
+      <c r="C35" s="123">
+        <v>2</v>
+      </c>
+      <c r="D35" s="124">
+        <v>440</v>
+      </c>
+      <c r="E35" s="125">
+        <v>6.4</v>
+      </c>
+      <c r="F35" s="126">
+        <v>3.585</v>
+      </c>
+      <c r="G35" s="127">
+        <v>34.619700000000002</v>
+      </c>
+      <c r="H35" s="124">
+        <v>1000</v>
+      </c>
+      <c r="I35" s="124">
+        <v>1006</v>
+      </c>
+      <c r="J35" s="128">
+        <f>IF(ISBLANK(D35),"",IF(VLOOKUP(D35,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D35&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D35&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D35,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>110.842</v>
+      </c>
+      <c r="K35" s="129">
+        <f t="shared" ref="K35:K56" si="4">IF(ISBLANK(E35),"",(0.000824493-(0.0000040899*E35)+(0.000000076438*E35^2)-(0.00000000082467*E35^3)+(0.0000000000053875*E35^4)))</f>
+        <v>8.0124139691264008E-4</v>
+      </c>
+      <c r="L35" s="129">
+        <f t="shared" ref="L35:L57" si="5">IF(ISBLANK(E35),"",(-0.00000572466+(0.00000010227*E35)-(0.0000000016546*E35^2)))</f>
+        <v>-5.1379044160000003E-6</v>
+      </c>
+      <c r="M35" s="129">
+        <f t="shared" ref="M35:M57" si="6">IF(ISBLANK(E35),"",IF(ISBLANK(G35),(O35+(K35*35)+(L35*35^1.5)+(0.00000048314*35^2)),(O35+(K35*G35)+(L35*G35^1.5)+(0.00000048314*G35^2))))</f>
+        <v>1.0272005284305488</v>
+      </c>
+      <c r="N35" s="130">
+        <f t="shared" ref="N35:N57" si="7">IF(ISBLANK(D35),"",IF(ISBLANK(G35),J35*(1+0.00001*(35-20)),J35*(1+0.00001*(G35-20))))</f>
+        <v>110.858204767874</v>
+      </c>
+      <c r="O35" s="129">
+        <f t="shared" ref="O35:O57" si="8">IF(ISBLANK(E35),"",(0.999842594+(0.00006793952*E35)-(0.00000909529*E35^2)+(0.0000001001685*E35^3)-(0.000000001120083*E35^4)+(0.000000000006536332*E35^5)))</f>
+        <v>0.99992931341675173</v>
+      </c>
+      <c r="P35" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A35=0,"",IF(ISBLANK($R$17),"",IF(B35=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D35&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D35&gt;1000),"N° Flac.",IF(AND(D35&gt;1202,D35&lt;2001),"Err. N°",IF(AND(D35&gt;499,D35&lt;1141),"Err.N°",(((((F35)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N35)-($P$26))))))))))))</f>
+        <v>3.6749604909222771</v>
+      </c>
+      <c r="Q35" s="151">
+        <f t="shared" si="0"/>
+        <v>3.7749213582367518</v>
+      </c>
+      <c r="R35" s="132">
+        <f t="shared" si="1"/>
+        <v>164.12373552458888</v>
+      </c>
+      <c r="S35" s="132">
+        <f t="shared" si="2"/>
+        <v>159.77769771531581</v>
+      </c>
+      <c r="T35" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="U35" s="175" t="s">
+        <v>124</v>
+      </c>
+      <c r="V35" s="176"/>
+      <c r="W35" s="177" t="s">
+        <v>125</v>
+      </c>
+      <c r="X35" s="175"/>
+      <c r="Y35" s="175" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z35" s="175"/>
+      <c r="AA35" s="175" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB35" s="175"/>
+      <c r="AC35" s="178" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" ht="15.75">
+      <c r="A36" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D36,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B36" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C36" s="123">
+        <v>3</v>
+      </c>
+      <c r="D36" s="124">
+        <v>445</v>
+      </c>
+      <c r="E36" s="125">
+        <v>8.4</v>
+      </c>
+      <c r="F36" s="126">
+        <v>3.2480000000000002</v>
+      </c>
+      <c r="G36" s="127">
+        <v>34.583100000000002</v>
+      </c>
+      <c r="H36" s="124">
+        <v>500</v>
+      </c>
+      <c r="I36" s="124">
+        <v>505</v>
+      </c>
+      <c r="J36" s="128">
+        <f>IF(ISBLANK(D36),"",IF(VLOOKUP(D36,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D36&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D36&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D36,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>118.483</v>
+      </c>
+      <c r="K36" s="129">
+        <f t="shared" si="4"/>
+        <v>7.9506934289183995E-4</v>
+      </c>
+      <c r="L36" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.9823405760000004E-6</v>
+      </c>
+      <c r="M36" s="129">
+        <f t="shared" si="6"/>
+        <v>1.0268861033682388</v>
+      </c>
+      <c r="N36" s="130">
+        <f t="shared" si="7"/>
+        <v>118.50027849437301</v>
+      </c>
+      <c r="O36" s="129">
+        <f t="shared" si="8"/>
+        <v>0.99982558936096888</v>
+      </c>
+      <c r="P36" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A36=0,"",IF(ISBLANK($R$17),"",IF(B36=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D36&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D36&gt;1000),"N° Flac.",IF(AND(D36&gt;1202,D36&lt;2001),"Err. N°",IF(AND(D36&gt;499,D36&lt;1141),"Err.N°",(((((F36)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N36)-($P$26))))))))))))</f>
+        <v>3.1097058654969398</v>
+      </c>
+      <c r="Q36" s="151">
+        <f t="shared" si="0"/>
+        <v>3.1933137388415092</v>
+      </c>
+      <c r="R36" s="132">
+        <f t="shared" si="1"/>
+        <v>138.87946395309334</v>
+      </c>
+      <c r="S36" s="132">
+        <f t="shared" si="2"/>
+        <v>135.2432986458397</v>
+      </c>
+      <c r="T36" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="U36" s="175" t="s">
+        <v>129</v>
+      </c>
+      <c r="V36" s="158"/>
+      <c r="W36" s="177" t="s">
+        <v>137</v>
+      </c>
+      <c r="X36" s="158"/>
+      <c r="Y36" s="175" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z36" s="158"/>
+      <c r="AA36" s="175" t="s">
+        <v>153</v>
+      </c>
+      <c r="AB36" s="158"/>
+      <c r="AC36" s="178" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" ht="15.75">
+      <c r="A37" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D37,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B37" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C37" s="123">
+        <v>4</v>
+      </c>
+      <c r="D37" s="124">
+        <v>447</v>
+      </c>
+      <c r="E37" s="125">
+        <v>16.8</v>
+      </c>
+      <c r="F37" s="126">
+        <v>2.9750000000000001</v>
+      </c>
+      <c r="G37" s="127">
+        <v>35.673400000000001</v>
+      </c>
+      <c r="H37" s="124">
+        <v>100</v>
+      </c>
+      <c r="I37" s="124">
+        <v>101</v>
+      </c>
+      <c r="J37" s="128">
+        <f>IF(ISBLANK(D37),"",IF(VLOOKUP(D37,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D37&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D37&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D37,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>115.16800000000001</v>
+      </c>
+      <c r="K37" s="129">
+        <f t="shared" si="4"/>
+        <v>7.7387542457088001E-4</v>
+      </c>
+      <c r="L37" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.4735183040000008E-6</v>
+      </c>
+      <c r="M37" s="129">
+        <f t="shared" si="6"/>
+        <v>1.0260798547722831</v>
+      </c>
+      <c r="N37" s="130">
+        <f t="shared" si="7"/>
+        <v>115.186050741312</v>
+      </c>
+      <c r="O37" s="129">
+        <f t="shared" si="8"/>
+        <v>0.99881140772267429</v>
+      </c>
+      <c r="P37" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A37=0,"",IF(ISBLANK($R$17),"",IF(B37=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D37&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D37&gt;1000),"N° Flac.",IF(AND(D37&gt;1202,D37&lt;2001),"Err. N°",IF(AND(D37&gt;499,D37&lt;1141),"Err.N°",(((((F37)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N37)-($P$26))))))))))))</f>
+        <v>2.9304602183528492</v>
+      </c>
+      <c r="Q37" s="151">
+        <f t="shared" si="0"/>
+        <v>3.0068861952634447</v>
+      </c>
+      <c r="R37" s="132">
+        <f t="shared" si="1"/>
+        <v>130.87435335163823</v>
+      </c>
+      <c r="S37" s="132">
+        <f t="shared" si="2"/>
+        <v>127.54792206760851</v>
+      </c>
+      <c r="T37" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="U37" s="175" t="s">
+        <v>130</v>
+      </c>
+      <c r="V37" s="158"/>
+      <c r="W37" s="177" t="s">
+        <v>138</v>
+      </c>
+      <c r="X37" s="158"/>
+      <c r="Y37" s="175" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z37" s="158"/>
+      <c r="AA37" s="175" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB37" s="158"/>
+      <c r="AC37" s="178" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" ht="15.75">
+      <c r="A38" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D38,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B38" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C38" s="123">
+        <v>5</v>
+      </c>
+      <c r="D38" s="124">
+        <v>392</v>
+      </c>
+      <c r="E38" s="125">
+        <v>18</v>
+      </c>
+      <c r="F38" s="126">
+        <v>3.76</v>
+      </c>
+      <c r="G38" s="127">
+        <v>35.811700000000002</v>
+      </c>
+      <c r="H38" s="124">
+        <v>80</v>
+      </c>
+      <c r="I38" s="124">
+        <v>81</v>
+      </c>
+      <c r="J38" s="128">
+        <f>IF(ISBLANK(D38),"",IF(VLOOKUP(D38,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D38&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D38&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D38,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>120.36499999999999</v>
+      </c>
+      <c r="K38" s="129">
+        <f t="shared" si="4"/>
+        <v>7.7139679476000004E-4</v>
+      </c>
+      <c r="L38" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.4198903999999997E-6</v>
+      </c>
+      <c r="M38" s="129">
+        <f t="shared" si="6"/>
+        <v>1.0258950143080434</v>
+      </c>
+      <c r="N38" s="130">
+        <f t="shared" si="7"/>
+        <v>120.384031752705</v>
+      </c>
+      <c r="O38" s="129">
+        <f t="shared" si="8"/>
+        <v>0.99859758310277646</v>
+      </c>
+      <c r="P38" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A38=0,"",IF(ISBLANK($R$17),"",IF(B38=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D38&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D38&gt;1000),"N° Flac.",IF(AND(D38&gt;1202,D38&lt;2001),"Err. N°",IF(AND(D38&gt;499,D38&lt;1141),"Err.N°",(((((F38)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N38)-($P$26))))))))))))</f>
+        <v>3.544907558893438</v>
+      </c>
+      <c r="Q38" s="151">
+        <f t="shared" si="0"/>
+        <v>3.636702990851675</v>
+      </c>
+      <c r="R38" s="132">
+        <f t="shared" si="1"/>
+        <v>158.31557158018092</v>
+      </c>
+      <c r="S38" s="132">
+        <f t="shared" si="2"/>
+        <v>154.31946677990564</v>
+      </c>
+      <c r="T38" s="175" t="s">
+        <v>131</v>
+      </c>
+      <c r="U38" s="175" t="s">
+        <v>131</v>
+      </c>
+      <c r="V38" s="158"/>
+      <c r="W38" s="177" t="s">
+        <v>139</v>
+      </c>
+      <c r="X38" s="158"/>
+      <c r="Y38" s="175" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z38" s="158"/>
+      <c r="AA38" s="175" t="s">
+        <v>155</v>
+      </c>
+      <c r="AB38" s="158"/>
+      <c r="AC38" s="178" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" ht="15.75">
+      <c r="A39" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D39,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B39" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C39" s="123">
+        <v>6</v>
+      </c>
+      <c r="D39" s="124">
+        <v>397</v>
+      </c>
+      <c r="E39" s="125">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F39" s="126">
+        <v>4.056</v>
+      </c>
+      <c r="G39" s="127">
+        <v>36.121699999999997</v>
+      </c>
+      <c r="H39" s="124">
+        <v>60</v>
+      </c>
+      <c r="I39" s="124">
+        <v>61</v>
+      </c>
+      <c r="J39" s="128">
+        <f>IF(ISBLANK(D39),"",IF(VLOOKUP(D39,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D39&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D39&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D39,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>118.962</v>
+      </c>
+      <c r="K39" s="129">
+        <f t="shared" si="4"/>
+        <v>7.6735028008486879E-4</v>
+      </c>
+      <c r="L39" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.3375079460000002E-6</v>
+      </c>
+      <c r="M39" s="129">
+        <f t="shared" si="6"/>
+        <v>1.0255923686394282</v>
+      </c>
+      <c r="N39" s="130">
+        <f t="shared" si="7"/>
+        <v>118.98117869675401</v>
+      </c>
+      <c r="O39" s="129">
+        <f t="shared" si="8"/>
+        <v>0.99818563856729414</v>
+      </c>
+      <c r="P39" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A39=0,"",IF(ISBLANK($R$17),"",IF(B39=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D39&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D39&gt;1000),"N° Flac.",IF(AND(D39&gt;1202,D39&lt;2001),"Err. N°",IF(AND(D39&gt;499,D39&lt;1141),"Err.N°",(((((F39)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N39)-($P$26))))))))))))</f>
+        <v>3.8709892119659917</v>
+      </c>
+      <c r="Q39" s="151">
+        <f t="shared" si="0"/>
+        <v>3.9700569948778748</v>
+      </c>
+      <c r="R39" s="132">
+        <f t="shared" si="1"/>
+        <v>172.87837820640118</v>
+      </c>
+      <c r="S39" s="132">
+        <f t="shared" si="2"/>
+        <v>168.56441554430165</v>
+      </c>
+      <c r="T39" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="U39" s="175" t="s">
+        <v>132</v>
+      </c>
+      <c r="V39" s="158"/>
+      <c r="W39" s="177" t="s">
+        <v>140</v>
+      </c>
+      <c r="X39" s="158"/>
+      <c r="Y39" s="175" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z39" s="158"/>
+      <c r="AA39" s="175" t="s">
+        <v>156</v>
+      </c>
+      <c r="AB39" s="158"/>
+      <c r="AC39" s="178" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" ht="15.75">
+      <c r="A40" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D40,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B40" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C40" s="123">
+        <v>7</v>
+      </c>
+      <c r="D40" s="124">
+        <v>398</v>
+      </c>
+      <c r="E40" s="125">
+        <v>23.8</v>
+      </c>
+      <c r="F40" s="126">
+        <v>4.8739999999999997</v>
+      </c>
+      <c r="G40" s="127">
+        <v>36.223700000000001</v>
+      </c>
+      <c r="H40" s="124">
+        <v>40</v>
+      </c>
+      <c r="I40" s="124">
+        <v>41</v>
+      </c>
+      <c r="J40" s="128">
+        <f>IF(ISBLANK(D40),"",IF(VLOOKUP(D40,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D40&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D40&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D40,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>118.586</v>
+      </c>
+      <c r="K40" s="129">
+        <f t="shared" si="4"/>
+        <v>7.6106192253878001E-4</v>
+      </c>
+      <c r="L40" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.2278656240000005E-6</v>
+      </c>
+      <c r="M40" s="129">
+        <f t="shared" si="6"/>
+        <v>1.0246292373653525</v>
+      </c>
+      <c r="N40" s="130">
+        <f t="shared" si="7"/>
+        <v>118.60523903688201</v>
+      </c>
+      <c r="O40" s="129">
+        <f t="shared" si="8"/>
+        <v>0.9973485474847249</v>
+      </c>
+      <c r="P40" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A40=0,"",IF(ISBLANK($R$17),"",IF(B40=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D40&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D40&gt;1000),"N° Flac.",IF(AND(D40&gt;1202,D40&lt;2001),"Err. N°",IF(AND(D40&gt;499,D40&lt;1141),"Err.N°",(((((F40)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N40)-($P$26))))))))))))</f>
+        <v>4.6696439839221622</v>
+      </c>
+      <c r="Q40" s="151">
+        <f t="shared" si="0"/>
+        <v>4.7846537540138714</v>
+      </c>
+      <c r="R40" s="132">
+        <f t="shared" si="1"/>
+        <v>208.54630032196374</v>
+      </c>
+      <c r="S40" s="132">
+        <f t="shared" si="2"/>
+        <v>203.53342723090995</v>
+      </c>
+      <c r="T40" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="U40" s="175" t="s">
+        <v>133</v>
+      </c>
+      <c r="V40" s="158"/>
+      <c r="W40" s="177" t="s">
+        <v>141</v>
+      </c>
+      <c r="X40" s="158"/>
+      <c r="Y40" s="175" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z40" s="158"/>
+      <c r="AA40" s="175" t="s">
+        <v>157</v>
+      </c>
+      <c r="AB40" s="158"/>
+      <c r="AC40" s="178" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" ht="15.75">
+      <c r="A41" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D41,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B41" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C41" s="123">
+        <v>8</v>
+      </c>
+      <c r="D41" s="124">
+        <v>399</v>
+      </c>
+      <c r="E41" s="125">
+        <v>27.8</v>
+      </c>
+      <c r="F41" s="126">
+        <v>4.5890000000000004</v>
+      </c>
+      <c r="G41" s="127">
+        <v>34.328200000000002</v>
+      </c>
+      <c r="H41" s="124">
+        <v>20</v>
+      </c>
+      <c r="I41" s="124">
+        <v>20.5</v>
+      </c>
+      <c r="J41" s="128">
+        <f>IF(ISBLANK(D41),"",IF(VLOOKUP(D41,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D41&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D41&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D41,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>113.43300000000001</v>
+      </c>
+      <c r="K41" s="129">
+        <f t="shared" si="4"/>
+        <v>7.5536798352758008E-4</v>
+      </c>
+      <c r="L41" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.1602950639999997E-6</v>
+      </c>
+      <c r="M41" s="129">
+        <f t="shared" si="6"/>
+        <v>1.0219567592382548</v>
+      </c>
+      <c r="N41" s="130">
+        <f t="shared" si="7"/>
+        <v>113.44925290710601</v>
+      </c>
+      <c r="O41" s="129">
+        <f t="shared" si="8"/>
+        <v>0.99629375117609742</v>
+      </c>
+      <c r="P41" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A41=0,"",IF(ISBLANK($R$17),"",IF(B41=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D41&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D41&gt;1000),"N° Flac.",IF(AND(D41&gt;1202,D41&lt;2001),"Err. N°",IF(AND(D41&gt;499,D41&lt;1141),"Err.N°",(((((F41)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N41)-($P$26))))))))))))</f>
+        <v>4.5990995562882278</v>
+      </c>
+      <c r="Q41" s="151">
+        <f t="shared" si="0"/>
+        <v>4.7000808779584125</v>
+      </c>
+      <c r="R41" s="132">
+        <f t="shared" si="1"/>
+        <v>205.39578618383223</v>
+      </c>
+      <c r="S41" s="132">
+        <f t="shared" si="2"/>
+        <v>200.98285404651557</v>
+      </c>
+      <c r="T41" s="175" t="s">
+        <v>134</v>
+      </c>
+      <c r="U41" s="175" t="s">
+        <v>134</v>
+      </c>
+      <c r="V41" s="158"/>
+      <c r="W41" s="177" t="s">
+        <v>142</v>
+      </c>
+      <c r="X41" s="158"/>
+      <c r="Y41" s="175" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z41" s="158"/>
+      <c r="AA41" s="175" t="s">
+        <v>158</v>
+      </c>
+      <c r="AB41" s="158"/>
+      <c r="AC41" s="178" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" ht="15.75">
+      <c r="A42" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D42,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B42" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C42" s="123">
+        <v>9</v>
+      </c>
+      <c r="D42" s="124">
+        <v>401</v>
+      </c>
+      <c r="E42" s="125">
+        <v>28</v>
+      </c>
+      <c r="F42" s="126">
+        <v>4.8179999999999996</v>
+      </c>
+      <c r="G42" s="127">
+        <v>34.325299999999999</v>
+      </c>
+      <c r="H42" s="124">
+        <v>10</v>
+      </c>
+      <c r="I42" s="124">
+        <v>10.5</v>
+      </c>
+      <c r="J42" s="128">
+        <f>IF(ISBLANK(D42),"",IF(VLOOKUP(D42,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D42&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D42&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D42,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>119.398</v>
+      </c>
+      <c r="K42" s="129">
+        <f t="shared" si="4"/>
+        <v>7.5511149536000002E-4</v>
+      </c>
+      <c r="L42" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.1583064E-6</v>
+      </c>
+      <c r="M42" s="129">
+        <f t="shared" si="6"/>
+        <v>1.02188954228478</v>
+      </c>
+      <c r="N42" s="130">
+        <f t="shared" si="7"/>
+        <v>119.415104121694</v>
+      </c>
+      <c r="O42" s="129">
+        <f t="shared" si="8"/>
+        <v>0.99623711905464207</v>
+      </c>
+      <c r="P42" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A42=0,"",IF(ISBLANK($R$17),"",IF(B42=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D42&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D42&gt;1000),"N° Flac.",IF(AND(D42&gt;1202,D42&lt;2001),"Err. N°",IF(AND(D42&gt;499,D42&lt;1141),"Err.N°",(((((F42)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N42)-($P$26))))))))))))</f>
+        <v>4.5839843182444957</v>
+      </c>
+      <c r="Q42" s="151">
+        <f t="shared" si="0"/>
+        <v>4.6843256368114767</v>
+      </c>
+      <c r="R42" s="132">
+        <f t="shared" si="1"/>
+        <v>204.72073965279915</v>
+      </c>
+      <c r="S42" s="132">
+        <f t="shared" si="2"/>
+        <v>200.33548752742556</v>
+      </c>
+      <c r="T42" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="U42" s="175" t="s">
+        <v>135</v>
+      </c>
+      <c r="V42" s="158"/>
+      <c r="W42" s="177" t="s">
+        <v>143</v>
+      </c>
+      <c r="X42" s="158"/>
+      <c r="Y42" s="175" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z42" s="158"/>
+      <c r="AA42" s="175" t="s">
+        <v>159</v>
+      </c>
+      <c r="AB42" s="158"/>
+      <c r="AC42" s="178" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" ht="15.75">
+      <c r="A43" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D43,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B43" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C43" s="123">
+        <v>10</v>
+      </c>
+      <c r="D43" s="124">
+        <v>402</v>
+      </c>
+      <c r="E43" s="125">
+        <v>27.9</v>
+      </c>
+      <c r="F43" s="126">
+        <v>4.8120000000000003</v>
+      </c>
+      <c r="G43" s="127">
+        <v>34.325600000000001</v>
+      </c>
+      <c r="H43" s="124">
+        <v>0</v>
+      </c>
+      <c r="I43" s="124">
+        <v>1</v>
+      </c>
+      <c r="J43" s="128">
+        <f>IF(ISBLANK(D43),"",IF(VLOOKUP(D43,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D43&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D43&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D43,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>119.29600000000001</v>
+      </c>
+      <c r="K43" s="129">
+        <f t="shared" si="4"/>
+        <v>7.5523941369100886E-4</v>
+      </c>
+      <c r="L43" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.1592841860000002E-6</v>
+      </c>
+      <c r="M43" s="129">
+        <f t="shared" si="6"/>
+        <v>1.0219223233295509</v>
+      </c>
+      <c r="N43" s="130">
+        <f t="shared" si="7"/>
+        <v>119.31308986777601</v>
+      </c>
+      <c r="O43" s="129">
+        <f t="shared" si="8"/>
+        <v>0.9962654803449148</v>
+      </c>
+      <c r="P43" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A43=0,"",IF(ISBLANK($R$17),"",IF(B43=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D43&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D43&gt;1000),"N° Flac.",IF(AND(D43&gt;1202,D43&lt;2001),"Err. N°",IF(AND(D43&gt;499,D43&lt;1141),"Err.N°",(((((F43)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N43)-($P$26))))))))))))</f>
+        <v>4.5822388706497383</v>
+      </c>
+      <c r="Q43" s="151">
+        <f t="shared" si="0"/>
+        <v>4.6826921927453578</v>
+      </c>
+      <c r="R43" s="132">
+        <f t="shared" si="1"/>
+        <v>204.6427879632173</v>
+      </c>
+      <c r="S43" s="132">
+        <f t="shared" si="2"/>
+        <v>200.25278173439392</v>
+      </c>
+      <c r="T43" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="U43" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="V43" s="176"/>
+      <c r="W43" s="177" t="s">
+        <v>144</v>
+      </c>
+      <c r="X43" s="175"/>
+      <c r="Y43" s="175" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z43" s="175"/>
+      <c r="AA43" s="175" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB43" s="175"/>
+      <c r="AC43" s="178" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" ht="15.75">
+      <c r="A44" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D44,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B44" s="150">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="C44" s="123">
+        <v>11</v>
+      </c>
+      <c r="D44" s="124">
+        <v>403</v>
+      </c>
+      <c r="E44" s="125">
+        <v>27.9</v>
+      </c>
+      <c r="F44" s="126">
+        <v>4.7830000000000004</v>
+      </c>
+      <c r="G44" s="127">
+        <v>34.326099999999997</v>
+      </c>
+      <c r="H44" s="124">
+        <v>0</v>
+      </c>
+      <c r="I44" s="124">
+        <v>1</v>
+      </c>
+      <c r="J44" s="128">
+        <f>IF(ISBLANK(D44),"",IF(VLOOKUP(D44,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D44&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D44&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D44,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v>118.544</v>
+      </c>
+      <c r="K44" s="129">
+        <f t="shared" si="4"/>
+        <v>7.5523941369100886E-4</v>
+      </c>
+      <c r="L44" s="129">
+        <f t="shared" si="5"/>
+        <v>-4.1592841860000002E-6</v>
+      </c>
+      <c r="M44" s="129">
+        <f t="shared" si="6"/>
+        <v>1.0219226992570551</v>
+      </c>
+      <c r="N44" s="130">
+        <f t="shared" si="7"/>
+        <v>118.560982731984</v>
+      </c>
+      <c r="O44" s="129">
+        <f t="shared" si="8"/>
+        <v>0.9962654803449148</v>
+      </c>
+      <c r="P44" s="131">
+        <f>IF(ISBLANK($R$16),"",IF(A44=0,"",IF(ISBLANK($R$17),"",IF(B44=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D44&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D44&gt;1000),"N° Flac.",IF(AND(D44&gt;1202,D44&lt;2001),"Err. N°",IF(AND(D44&gt;499,D44&lt;1141),"Err.N°",(((((F44)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N44)-($P$26))))))))))))</f>
+        <v>4.5839243502878455</v>
+      </c>
+      <c r="Q44" s="151">
+        <f t="shared" si="0"/>
+        <v>4.6844163452362979</v>
+      </c>
+      <c r="R44" s="132">
+        <f t="shared" si="1"/>
+        <v>204.71806148385517</v>
+      </c>
+      <c r="S44" s="132">
+        <f t="shared" si="2"/>
+        <v>200.32636679142817</v>
+      </c>
+      <c r="T44" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="U44" s="175" t="s">
+        <v>136</v>
+      </c>
+      <c r="V44" s="176"/>
+      <c r="W44" s="177" t="s">
+        <v>144</v>
+      </c>
+      <c r="X44" s="175"/>
+      <c r="Y44" s="175" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z44" s="175"/>
+      <c r="AA44" s="175" t="s">
+        <v>160</v>
+      </c>
+      <c r="AB44" s="175"/>
+      <c r="AC44" s="178" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" ht="15.75">
+      <c r="A45" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D45,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B45" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C45" s="123">
+        <v>12</v>
+      </c>
+      <c r="D45" s="124"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="126"/>
+      <c r="G45" s="127"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="128" t="str">
+        <f>IF(ISBLANK(D45),"",IF(VLOOKUP(D45,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D45&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D45&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D45,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K45" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L45" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M45" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N45" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O45" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P45" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A45=0,"",IF(ISBLANK($R$17),"",IF(B45=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D45&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D45&gt;1000),"N° Flac.",IF(AND(D45&gt;1202,D45&lt;2001),"Err. N°",IF(AND(D45&gt;499,D45&lt;1141),"Err.N°",(((((F45)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N45)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q45" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R45" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S45" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T45" s="158"/>
+      <c r="U45" s="158"/>
+      <c r="V45" s="158"/>
+      <c r="W45" s="158"/>
+      <c r="X45" s="158"/>
+      <c r="Y45" s="158"/>
+      <c r="Z45" s="158"/>
+      <c r="AA45" s="158"/>
+      <c r="AB45" s="158"/>
+      <c r="AC45" s="161"/>
+    </row>
+    <row r="46" spans="1:29" ht="15.75">
+      <c r="A46" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D46,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B46" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C46" s="123">
+        <v>13</v>
+      </c>
+      <c r="D46" s="124"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="126"/>
+      <c r="G46" s="127"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="128" t="str">
+        <f>IF(ISBLANK(D46),"",IF(VLOOKUP(D46,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D46&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D46&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D46,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K46" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L46" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M46" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N46" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O46" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P46" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A46=0,"",IF(ISBLANK($R$17),"",IF(B46=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D46&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D46&gt;1000),"N° Flac.",IF(AND(D46&gt;1202,D46&lt;2001),"Err. N°",IF(AND(D46&gt;499,D46&lt;1141),"Err.N°",(((((F46)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N46)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q46" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R46" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S46" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T46" s="158"/>
+      <c r="U46" s="158"/>
+      <c r="V46" s="158"/>
+      <c r="W46" s="158"/>
+      <c r="X46" s="158"/>
+      <c r="Y46" s="158"/>
+      <c r="Z46" s="158"/>
+      <c r="AA46" s="158"/>
+      <c r="AB46" s="158"/>
+      <c r="AC46" s="161"/>
+    </row>
+    <row r="47" spans="1:29" ht="15.75">
+      <c r="A47" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D47,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B47" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C47" s="123">
+        <v>14</v>
+      </c>
+      <c r="D47" s="124"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="126"/>
+      <c r="G47" s="127"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="128" t="str">
+        <f>IF(ISBLANK(D47),"",IF(VLOOKUP(D47,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D47&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D47&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D47,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K47" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L47" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M47" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N47" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O47" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P47" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A47=0,"",IF(ISBLANK($R$17),"",IF(B47=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D47&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D47&gt;1000),"N° Flac.",IF(AND(D47&gt;1202,D47&lt;2001),"Err. N°",IF(AND(D47&gt;499,D47&lt;1141),"Err.N°",(((((F47)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N47)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q47" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R47" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S47" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T47" s="158"/>
+      <c r="U47" s="158"/>
+      <c r="V47" s="158"/>
+      <c r="W47" s="158"/>
+      <c r="X47" s="158"/>
+      <c r="Y47" s="158"/>
+      <c r="Z47" s="158"/>
+      <c r="AA47" s="158"/>
+      <c r="AB47" s="158"/>
+      <c r="AC47" s="161"/>
+    </row>
+    <row r="48" spans="1:29" ht="15.75">
+      <c r="A48" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D48,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B48" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C48" s="123">
+        <v>15</v>
+      </c>
+      <c r="D48" s="124"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="126"/>
+      <c r="G48" s="127"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="128" t="str">
+        <f>IF(ISBLANK(D48),"",IF(VLOOKUP(D48,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D48&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D48&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D48,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K48" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L48" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M48" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N48" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O48" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P48" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A48=0,"",IF(ISBLANK($R$17),"",IF(B48=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D48&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D48&gt;1000),"N° Flac.",IF(AND(D48&gt;1202,D48&lt;2001),"Err. N°",IF(AND(D48&gt;499,D48&lt;1141),"Err.N°",(((((F48)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N48)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q48" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R48" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S48" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T48" s="158"/>
+      <c r="U48" s="158"/>
+      <c r="V48" s="158"/>
+      <c r="W48" s="158"/>
+      <c r="X48" s="158"/>
+      <c r="Y48" s="158"/>
+      <c r="Z48" s="158"/>
+      <c r="AA48" s="158"/>
+      <c r="AB48" s="158"/>
+      <c r="AC48" s="161"/>
+    </row>
+    <row r="49" spans="1:29" ht="15.75">
+      <c r="A49" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D49,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B49" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C49" s="123">
+        <v>16</v>
+      </c>
+      <c r="D49" s="124"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="126"/>
+      <c r="G49" s="127"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="128" t="str">
+        <f>IF(ISBLANK(D49),"",IF(VLOOKUP(D49,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D49&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D49&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D49,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K49" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L49" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M49" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N49" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O49" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P49" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A49=0,"",IF(ISBLANK($R$17),"",IF(B49=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D49&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D49&gt;1000),"N° Flac.",IF(AND(D49&gt;1202,D49&lt;2001),"Err. N°",IF(AND(D49&gt;499,D49&lt;1141),"Err.N°",(((((F49)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N49)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q49" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R49" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S49" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T49" s="158"/>
+      <c r="U49" s="158"/>
+      <c r="V49" s="158"/>
+      <c r="W49" s="158"/>
+      <c r="X49" s="158"/>
+      <c r="Y49" s="158"/>
+      <c r="Z49" s="158"/>
+      <c r="AA49" s="158"/>
+      <c r="AB49" s="158"/>
+      <c r="AC49" s="161"/>
+    </row>
+    <row r="50" spans="1:29" ht="15.75">
+      <c r="A50" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D50,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B50" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C50" s="123">
+        <v>17</v>
+      </c>
+      <c r="D50" s="124"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="126"/>
+      <c r="G50" s="127"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="128" t="str">
+        <f>IF(ISBLANK(D50),"",IF(VLOOKUP(D50,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D50&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D50&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D50,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K50" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L50" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M50" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N50" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O50" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P50" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A50=0,"",IF(ISBLANK($R$17),"",IF(B50=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D50&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D50&gt;1000),"N° Flac.",IF(AND(D50&gt;1202,D50&lt;2001),"Err. N°",IF(AND(D50&gt;499,D50&lt;1141),"Err.N°",(((((F50)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N50)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q50" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R50" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S50" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T50" s="158"/>
+      <c r="U50" s="158"/>
+      <c r="V50" s="158"/>
+      <c r="W50" s="158"/>
+      <c r="X50" s="158"/>
+      <c r="Y50" s="158"/>
+      <c r="Z50" s="158"/>
+      <c r="AA50" s="158"/>
+      <c r="AB50" s="158"/>
+      <c r="AC50" s="161"/>
+    </row>
+    <row r="51" spans="1:29" ht="15.75">
+      <c r="A51" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D51,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B51" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C51" s="123">
+        <v>18</v>
+      </c>
+      <c r="D51" s="124"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="126"/>
+      <c r="G51" s="127"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="128" t="str">
+        <f>IF(ISBLANK(D51),"",IF(VLOOKUP(D51,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D51&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D51&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D51,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K51" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L51" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M51" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N51" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O51" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P51" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A51=0,"",IF(ISBLANK($R$17),"",IF(B51=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D51&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D51&gt;1000),"N° Flac.",IF(AND(D51&gt;1202,D51&lt;2001),"Err. N°",IF(AND(D51&gt;499,D51&lt;1141),"Err.N°",(((((F51)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N51)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q51" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R51" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S51" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T51" s="158"/>
+      <c r="U51" s="158"/>
+      <c r="V51" s="158"/>
+      <c r="W51" s="158"/>
+      <c r="X51" s="158"/>
+      <c r="Y51" s="158"/>
+      <c r="Z51" s="158"/>
+      <c r="AA51" s="158"/>
+      <c r="AB51" s="158"/>
+      <c r="AC51" s="161"/>
+    </row>
+    <row r="52" spans="1:29" ht="15.75">
+      <c r="A52" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D52,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B52" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C52" s="123">
+        <v>19</v>
+      </c>
+      <c r="D52" s="124"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="126"/>
+      <c r="G52" s="127"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="128" t="str">
+        <f>IF(ISBLANK(D52),"",IF(VLOOKUP(D52,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D52&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D52&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D52,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K52" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L52" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M52" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N52" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O52" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P52" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A52=0,"",IF(ISBLANK($R$17),"",IF(B52=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D52&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D52&gt;1000),"N° Flac.",IF(AND(D52&gt;1202,D52&lt;2001),"Err. N°",IF(AND(D52&gt;499,D52&lt;1141),"Err.N°",(((((F52)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N52)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q52" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R52" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S52" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T52" s="158"/>
+      <c r="U52" s="158"/>
+      <c r="V52" s="158"/>
+      <c r="W52" s="158"/>
+      <c r="X52" s="158"/>
+      <c r="Y52" s="158"/>
+      <c r="Z52" s="158"/>
+      <c r="AA52" s="158"/>
+      <c r="AB52" s="158"/>
+      <c r="AC52" s="161"/>
+    </row>
+    <row r="53" spans="1:29" ht="15.75">
+      <c r="A53" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D53,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B53" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C53" s="123">
+        <v>20</v>
+      </c>
+      <c r="D53" s="124"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="126"/>
+      <c r="G53" s="127"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="128" t="str">
+        <f>IF(ISBLANK(D53),"",IF(VLOOKUP(D53,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D53&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D53&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D53,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K53" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L53" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M53" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N53" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O53" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P53" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A53=0,"",IF(ISBLANK($R$17),"",IF(B53=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D53&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D53&gt;1000),"N° Flac.",IF(AND(D53&gt;1202,D53&lt;2001),"Err. N°",IF(AND(D53&gt;499,D53&lt;1141),"Err.N°",(((((F53)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N53)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q53" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R53" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S53" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T53" s="158"/>
+      <c r="U53" s="158"/>
+      <c r="V53" s="158"/>
+      <c r="W53" s="158"/>
+      <c r="X53" s="158"/>
+      <c r="Y53" s="158"/>
+      <c r="Z53" s="158"/>
+      <c r="AA53" s="158"/>
+      <c r="AB53" s="158"/>
+      <c r="AC53" s="161"/>
+    </row>
+    <row r="54" spans="1:29" ht="15.75">
+      <c r="A54" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D54,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B54" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C54" s="123">
+        <v>21</v>
+      </c>
+      <c r="D54" s="124"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="126"/>
+      <c r="G54" s="127"/>
+      <c r="H54" s="124"/>
+      <c r="I54" s="124"/>
+      <c r="J54" s="128" t="str">
+        <f>IF(ISBLANK(D54),"",IF(VLOOKUP(D54,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D54&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D54&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D54,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K54" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L54" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M54" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N54" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O54" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P54" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A54=0,"",IF(ISBLANK($R$17),"",IF(B54=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D54&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D54&gt;1000),"N° Flac.",IF(AND(D54&gt;1202,D54&lt;2001),"Err. N°",IF(AND(D54&gt;499,D54&lt;1141),"Err.N°",(((((F54)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N54)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q54" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R54" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S54" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T54" s="158"/>
+      <c r="U54" s="158"/>
+      <c r="V54" s="158"/>
+      <c r="W54" s="158"/>
+      <c r="X54" s="158"/>
+      <c r="Y54" s="158"/>
+      <c r="Z54" s="158"/>
+      <c r="AA54" s="158"/>
+      <c r="AB54" s="158"/>
+      <c r="AC54" s="161"/>
+    </row>
+    <row r="55" spans="1:29" ht="15.75">
+      <c r="A55" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D55,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B55" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C55" s="123">
+        <v>22</v>
+      </c>
+      <c r="D55" s="124"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="127"/>
+      <c r="H55" s="124"/>
+      <c r="I55" s="124"/>
+      <c r="J55" s="128" t="str">
+        <f>IF(ISBLANK(D55),"",IF(VLOOKUP(D55,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D55&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D55&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D55,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K55" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L55" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M55" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N55" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O55" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P55" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A55=0,"",IF(ISBLANK($R$17),"",IF(B55=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D55&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D55&gt;1000),"N° Flac.",IF(AND(D55&gt;1202,D55&lt;2001),"Err. N°",IF(AND(D55&gt;499,D55&lt;1141),"Err.N°",(((((F55)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N55)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q55" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R55" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S55" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T55" s="158"/>
+      <c r="U55" s="158"/>
+      <c r="V55" s="158"/>
+      <c r="W55" s="158"/>
+      <c r="X55" s="158"/>
+      <c r="Y55" s="158"/>
+      <c r="Z55" s="158"/>
+      <c r="AA55" s="158"/>
+      <c r="AB55" s="158"/>
+      <c r="AC55" s="161"/>
+    </row>
+    <row r="56" spans="1:29" ht="15.75">
+      <c r="A56" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D56,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B56" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C56" s="123">
+        <v>23</v>
+      </c>
+      <c r="D56" s="124"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="124"/>
+      <c r="J56" s="128" t="str">
+        <f>IF(ISBLANK(D56),"",IF(VLOOKUP(D56,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D56&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D56&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D56,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K56" s="129" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="L56" s="129" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M56" s="129" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N56" s="130" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O56" s="129" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P56" s="131" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A56=0,"",IF(ISBLANK($R$17),"",IF(B56=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D56&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D56&gt;1000),"N° Flac.",IF(AND(D56&gt;1202,D56&lt;2001),"Err. N°",IF(AND(D56&gt;499,D56&lt;1141),"Err.N°",(((((F56)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N56)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q56" s="151" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R56" s="132" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S56" s="132" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T56" s="158"/>
+      <c r="U56" s="158"/>
+      <c r="V56" s="158"/>
+      <c r="W56" s="158"/>
+      <c r="X56" s="158"/>
+      <c r="Y56" s="158"/>
+      <c r="Z56" s="158"/>
+      <c r="AA56" s="158"/>
+      <c r="AB56" s="158"/>
+      <c r="AC56" s="161"/>
+    </row>
+    <row r="57" spans="1:29" ht="16.5" thickBot="1">
+      <c r="A57" s="153">
+        <f>IF(ISBLANK(VLOOKUP(D57,'Volumes flacons'!A5:C623,3)),0,1)</f>
+        <v>1</v>
+      </c>
+      <c r="B57" s="150">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="C57" s="133">
+        <v>24</v>
+      </c>
+      <c r="D57" s="134"/>
+      <c r="E57" s="135"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="134"/>
+      <c r="I57" s="134"/>
+      <c r="J57" s="138" t="str">
+        <f>IF(ISBLANK(D57),"",IF(VLOOKUP(D57,'Volumes flacons'!$A$5:$C$623,2)=0,"",IF(D57&gt;'Volumes flacons'!$A$623,"Mauvais numéro",IF(D57&lt;'Volumes flacons'!$A$5,"Mauvais numéro",(VLOOKUP(D57,'Volumes flacons'!$A$5:$C$623,3))))))</f>
+        <v/>
+      </c>
+      <c r="K57" s="139" t="str">
+        <f>IF(ISBLANK(E57),"",(0.000824493-(0.0000040899*E57)+(0.000000076438*E57^2)-(0.00000000082467*E57^3)+(0.0000000000053875*E57^4)))</f>
+        <v/>
+      </c>
+      <c r="L57" s="139" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="M57" s="139" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="N57" s="140" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="O57" s="139" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="P57" s="141" t="str">
+        <f>IF(ISBLANK($R$16),"",IF(A57=0,"",IF(ISBLANK($R$17),"",IF(B57=0,"",IF($O$28=$I$29,"",IF(AND($I$29=$O$29,D57&lt;1000),"N° Flac.",IF(AND($I$29=$O$30,D57&gt;1000),"N° Flac.",IF(AND(D57&gt;1202,D57&lt;2001),"Err. N°",IF(AND(D57&gt;499,D57&lt;1141),"Err.N°",(((((F57)+'Correction de volume'!$G$7)*(($P$21)*($P$19)*5598)/(($R$16)-($R$17)))-(($P$27)*1000))/((N57)-($P$26))))))))))))</f>
+        <v/>
+      </c>
+      <c r="Q57" s="152" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="R57" s="142" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="S57" s="142" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="T57" s="162"/>
+      <c r="U57" s="162"/>
+      <c r="V57" s="162"/>
+      <c r="W57" s="162"/>
+      <c r="X57" s="162"/>
+      <c r="Y57" s="162"/>
+      <c r="Z57" s="162"/>
+      <c r="AA57" s="162"/>
+      <c r="AB57" s="162"/>
+      <c r="AC57" s="163"/>
+    </row>
+    <row r="59" spans="1:29" ht="22.5" customHeight="1"/>
+    <row r="60" spans="1:29" ht="3" customHeight="1" thickBot="1"/>
+    <row r="61" spans="1:29" ht="21.75" thickBot="1">
+      <c r="C61" s="235" t="s">
+        <v>101</v>
+      </c>
+      <c r="D61" s="236"/>
+      <c r="E61" s="236"/>
+      <c r="F61" s="236"/>
+      <c r="G61" s="236"/>
+      <c r="H61" s="236"/>
+      <c r="I61" s="236"/>
+      <c r="J61" s="236"/>
+      <c r="K61" s="236"/>
+      <c r="L61" s="236"/>
+      <c r="M61" s="236"/>
+      <c r="N61" s="236"/>
+      <c r="O61" s="236"/>
+      <c r="P61" s="236"/>
+      <c r="Q61" s="236"/>
+      <c r="R61" s="236"/>
+      <c r="S61" s="237"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <mergeCells count="37">
+    <mergeCell ref="C61:S61"/>
+    <mergeCell ref="P31:S32"/>
+    <mergeCell ref="T31:U32"/>
+    <mergeCell ref="V31:W32"/>
+    <mergeCell ref="X31:Y32"/>
+    <mergeCell ref="Z31:AA32"/>
+    <mergeCell ref="AB31:AC32"/>
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="L31:L32"/>
+    <mergeCell ref="M31:M32"/>
+    <mergeCell ref="N31:N32"/>
+    <mergeCell ref="O31:O32"/>
+    <mergeCell ref="G11:H12"/>
+    <mergeCell ref="P11:R12"/>
+    <mergeCell ref="E29:H29"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="Q8:R8"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="F2:T2"/>
+    <mergeCell ref="C4:U4"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="P6:Q6"/>
+    <mergeCell ref="S6:U6"/>
+  </mergeCells>
+  <dataValidations count="4">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choix Cardinal" sqref="P9">
+      <formula1>$M$8:$M$10</formula1>
+    </dataValidation>
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="Choix Cardinal" sqref="P10">
+      <formula1>$N$8:$N$10</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="J30"/>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="I29">
+      <formula1>$O$28:$O$30</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
@@ -16379,25 +19783,25 @@
       <c r="A3" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="261"/>
+      <c r="B3" s="264"/>
       <c r="C3" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="263" t="s">
+      <c r="D3" s="266" t="s">
         <v>73</v>
       </c>
-      <c r="E3" s="265" t="s">
+      <c r="E3" s="268" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15.75" thickBot="1">
       <c r="A4" s="101"/>
-      <c r="B4" s="262"/>
+      <c r="B4" s="265"/>
       <c r="C4" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="264"/>
-      <c r="E4" s="266"/>
+      <c r="D4" s="267"/>
+      <c r="E4" s="269"/>
     </row>
     <row r="5" spans="1:8" s="52" customFormat="1">
       <c r="A5" s="115">
@@ -25627,7 +29031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -25650,13 +29054,13 @@
   <sheetData>
     <row r="1" spans="1:7" ht="21.75" thickBot="1">
       <c r="A1" s="20"/>
-      <c r="B1" s="267" t="s">
+      <c r="B1" s="270" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="267"/>
-      <c r="D1" s="267"/>
-      <c r="E1" s="267"/>
-      <c r="F1" s="268"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="271"/>
       <c r="G1" s="60"/>
     </row>
     <row r="2" spans="1:7" ht="16.5" customHeight="1" thickBot="1">
@@ -25669,40 +29073,40 @@
       <c r="G2" s="41"/>
     </row>
     <row r="3" spans="1:7" ht="15" customHeight="1">
-      <c r="A3" s="279" t="s">
+      <c r="A3" s="282" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="276" t="s">
+      <c r="B3" s="279" t="s">
         <v>70</v>
       </c>
-      <c r="C3" s="276" t="s">
+      <c r="C3" s="279" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="276" t="s">
+      <c r="D3" s="279" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="276" t="s">
+      <c r="E3" s="279" t="s">
         <v>35</v>
       </c>
-      <c r="F3" s="273" t="s">
+      <c r="F3" s="276" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="280"/>
-      <c r="B4" s="277"/>
-      <c r="C4" s="277"/>
-      <c r="D4" s="277"/>
-      <c r="E4" s="277"/>
-      <c r="F4" s="274"/>
+      <c r="A4" s="283"/>
+      <c r="B4" s="280"/>
+      <c r="C4" s="280"/>
+      <c r="D4" s="280"/>
+      <c r="E4" s="280"/>
+      <c r="F4" s="277"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="281"/>
-      <c r="B5" s="278"/>
-      <c r="C5" s="278"/>
-      <c r="D5" s="278"/>
-      <c r="E5" s="278"/>
-      <c r="F5" s="275"/>
+      <c r="A5" s="284"/>
+      <c r="B5" s="281"/>
+      <c r="C5" s="281"/>
+      <c r="D5" s="281"/>
+      <c r="E5" s="281"/>
+      <c r="F5" s="278"/>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
       <c r="A6" s="49"/>
@@ -25805,11 +29209,11 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="271" t="s">
+      <c r="A13" s="274" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="272"/>
-      <c r="C13" s="272"/>
+      <c r="B13" s="275"/>
+      <c r="C13" s="275"/>
       <c r="D13" s="24" t="s">
         <v>23</v>
       </c>
@@ -25822,11 +29226,11 @@
       <c r="G13" s="28"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="269" t="s">
+      <c r="A14" s="272" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="270"/>
-      <c r="C14" s="270"/>
+      <c r="B14" s="273"/>
+      <c r="C14" s="273"/>
       <c r="D14" s="27" t="s">
         <v>24</v>
       </c>
@@ -25927,7 +29331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -25950,14 +29354,14 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" thickBot="1">
       <c r="A1" s="20"/>
-      <c r="B1" s="284" t="s">
+      <c r="B1" s="287" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="284"/>
-      <c r="D1" s="284"/>
-      <c r="E1" s="284"/>
-      <c r="F1" s="284"/>
-      <c r="G1" s="285"/>
+      <c r="C1" s="287"/>
+      <c r="D1" s="287"/>
+      <c r="E1" s="287"/>
+      <c r="F1" s="287"/>
+      <c r="G1" s="288"/>
       <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8" ht="21" thickBot="1">
@@ -25971,37 +29375,37 @@
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" ht="25.5" customHeight="1">
-      <c r="A3" s="282" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="288" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="288" t="s">
+      <c r="A3" s="285" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="291" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="291" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="288" t="s">
+      <c r="D3" s="291" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="288" t="s">
+      <c r="E3" s="291" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="288" t="s">
+      <c r="F3" s="291" t="s">
         <v>71</v>
       </c>
-      <c r="G3" s="286" t="s">
+      <c r="G3" s="289" t="s">
         <v>72</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="283"/>
-      <c r="B4" s="289"/>
-      <c r="C4" s="289"/>
-      <c r="D4" s="289"/>
-      <c r="E4" s="289"/>
-      <c r="F4" s="289"/>
-      <c r="G4" s="287"/>
+      <c r="A4" s="286"/>
+      <c r="B4" s="292"/>
+      <c r="C4" s="292"/>
+      <c r="D4" s="292"/>
+      <c r="E4" s="292"/>
+      <c r="F4" s="292"/>
+      <c r="G4" s="290"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
